--- a/data/trans_orig/P1201-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1201-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7709</v>
+        <v>9245</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004017969815640903</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01319763090767433</v>
+        <v>0.01582614851236127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -765,19 +765,19 @@
         <v>25969</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17412</v>
+        <v>16325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37622</v>
+        <v>37633</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02815525746457231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01887845012826095</v>
+        <v>0.01769964388735056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04079023396207693</v>
+        <v>0.04080150727737044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>28316</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19325</v>
+        <v>19139</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41345</v>
+        <v>42076</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01879592958110348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01282772508151934</v>
+        <v>0.0127048039792158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02744486064044775</v>
+        <v>0.02793019013555918</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>30211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20012</v>
+        <v>21768</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41216</v>
+        <v>44858</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05171789905461701</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03425862327622523</v>
+        <v>0.03726522707593612</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07055911304744372</v>
+        <v>0.07679340691479081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -836,19 +836,19 @@
         <v>51180</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38747</v>
+        <v>37850</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65853</v>
+        <v>67692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05548947925613693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04201011331007115</v>
+        <v>0.04103703716184127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07139879863199886</v>
+        <v>0.0733916700614759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -857,19 +857,19 @@
         <v>81390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65694</v>
+        <v>64420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100141</v>
+        <v>99730</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05402703425161767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04360798228265876</v>
+        <v>0.04276237134049562</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06647345643670627</v>
+        <v>0.06620112121883313</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>115843</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97733</v>
+        <v>97192</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137280</v>
+        <v>136340</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1983132163616874</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1673100115818273</v>
+        <v>0.1663843450368749</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2350110500899283</v>
+        <v>0.2334023047584841</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>188</v>
@@ -907,19 +907,19 @@
         <v>194141</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>168115</v>
+        <v>170649</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>218789</v>
+        <v>220690</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2104895580821435</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1822710927265649</v>
+        <v>0.1850192285269232</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2372123634181754</v>
+        <v>0.2392737808572052</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>303</v>
@@ -928,19 +928,19 @@
         <v>309984</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>277447</v>
+        <v>279860</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>342488</v>
+        <v>343074</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2057681338591549</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.184169706813252</v>
+        <v>0.1857715207447672</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2273441260118058</v>
+        <v>0.2277331577382037</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>93363</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75911</v>
+        <v>77487</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113406</v>
+        <v>110693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1598297485173881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1299533326579484</v>
+        <v>0.1326513727966907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1941410383241198</v>
+        <v>0.1894963038932327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>230</v>
@@ -978,19 +978,19 @@
         <v>237647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>214922</v>
+        <v>210682</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>266665</v>
+        <v>265685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2576590327228704</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2330205028545487</v>
+        <v>0.2284223868933433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2891195948130402</v>
+        <v>0.2880574095461575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>324</v>
@@ -999,19 +999,19 @@
         <v>331011</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>300797</v>
+        <v>299388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>365322</v>
+        <v>366511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2197253443647793</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1996695275258897</v>
+        <v>0.1987341995381762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2425014589165317</v>
+        <v>0.2432905309756415</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>216928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>192693</v>
+        <v>194284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>241453</v>
+        <v>240725</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3713619939803112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3298737196042619</v>
+        <v>0.3325982800299597</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4133478218160312</v>
+        <v>0.4121001783583654</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>271</v>
@@ -1049,19 +1049,19 @@
         <v>277423</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>248828</v>
+        <v>250021</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>303393</v>
+        <v>304195</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.300783636704329</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2697815941670156</v>
+        <v>0.2710743142327554</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3289405945089674</v>
+        <v>0.3298101742552232</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>481</v>
@@ -1070,19 +1070,19 @@
         <v>494350</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>458987</v>
+        <v>455296</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>533420</v>
+        <v>530250</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3281506713450986</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3046766580411115</v>
+        <v>0.3022265000940141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3540853812561114</v>
+        <v>0.3519809640162728</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>125450</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>106049</v>
+        <v>105737</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>146051</v>
+        <v>147085</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2147591722703555</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1815470666120096</v>
+        <v>0.1810125244756026</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2500272765875124</v>
+        <v>0.2517977227326852</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>123</v>
@@ -1120,19 +1120,19 @@
         <v>135973</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>113335</v>
+        <v>114483</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>157232</v>
+        <v>158806</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1474230357699478</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1228789670938681</v>
+        <v>0.1241228948899528</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1704720813928167</v>
+        <v>0.1721789509777967</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>246</v>
@@ -1141,19 +1141,19 @@
         <v>261423</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>232925</v>
+        <v>230348</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>293260</v>
+        <v>292599</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1735328865982462</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1546158662835979</v>
+        <v>0.1529052325807309</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1946664011619347</v>
+        <v>0.1942277956261316</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>4920</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1803</v>
+        <v>1790</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10380</v>
+        <v>10765</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004564469754670297</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001672785688861989</v>
+        <v>0.001661036791237861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.009629996493101037</v>
+        <v>0.009986666467898472</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1266,19 +1266,19 @@
         <v>11759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6434</v>
+        <v>6469</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20306</v>
+        <v>19214</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01111910845651851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006084368818740508</v>
+        <v>0.006117385613750063</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01920107241676782</v>
+        <v>0.01816856733400287</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1287,19 +1287,19 @@
         <v>16679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10249</v>
+        <v>10054</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26217</v>
+        <v>26286</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007810548022742253</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00479944300610671</v>
+        <v>0.004707995475890816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0122773232075429</v>
+        <v>0.01230946237442773</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>29207</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19636</v>
+        <v>20023</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40591</v>
+        <v>40782</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0270962900879834</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01821740597442031</v>
+        <v>0.01857576415260701</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03765755517861062</v>
+        <v>0.03783485538615644</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -1337,19 +1337,19 @@
         <v>57147</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44790</v>
+        <v>44330</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74268</v>
+        <v>72822</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05403735561635024</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04235313607045865</v>
+        <v>0.04191813500807955</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07022761204946457</v>
+        <v>0.06885983716655808</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -1358,19 +1358,19 @@
         <v>86353</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69900</v>
+        <v>70058</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>107219</v>
+        <v>104690</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04043841485005076</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03273357850568325</v>
+        <v>0.03280726140708699</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05020930509287542</v>
+        <v>0.04902505730384855</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>151120</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129779</v>
+        <v>129180</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173784</v>
+        <v>175952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1401997405403982</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1204001728067816</v>
+        <v>0.1198445503277234</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1612257217584517</v>
+        <v>0.1632368977022937</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -1408,19 +1408,19 @@
         <v>177699</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>152374</v>
+        <v>154802</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201539</v>
+        <v>202544</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1680308592594101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1440833566304563</v>
+        <v>0.1463792028993834</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1905741931173459</v>
+        <v>0.1915237173103787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>324</v>
@@ -1429,19 +1429,19 @@
         <v>328819</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>293467</v>
+        <v>296450</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>363520</v>
+        <v>362239</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1539826496768608</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1374275119760968</v>
+        <v>0.1388245824747008</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1702323987355496</v>
+        <v>0.1696326799651777</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>143072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120884</v>
+        <v>122208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>167293</v>
+        <v>167881</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1327331251317508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1121481527509263</v>
+        <v>0.11337643532495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1552035149653151</v>
+        <v>0.1557488378421619</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -1479,19 +1479,19 @@
         <v>159597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>138144</v>
+        <v>137747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187597</v>
+        <v>182832</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1509141245092169</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1306283643806704</v>
+        <v>0.1302522383488514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1773898976874486</v>
+        <v>0.1728842803415619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>291</v>
@@ -1500,19 +1500,19 @@
         <v>302670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>269103</v>
+        <v>271223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>333455</v>
+        <v>334623</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1417369695319587</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1260182154209002</v>
+        <v>0.1270108138979208</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1561535115496541</v>
+        <v>0.1567001735836115</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>470320</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>437341</v>
+        <v>436024</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>501188</v>
+        <v>502861</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.436332625246448</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4057365731139728</v>
+        <v>0.4045151504395824</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4649700352769434</v>
+        <v>0.4665221248170806</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>421</v>
@@ -1550,19 +1550,19 @@
         <v>427076</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>397357</v>
+        <v>395664</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>459626</v>
+        <v>458056</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4038394701727536</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3757376474200346</v>
+        <v>0.3741371228199284</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4346189664337958</v>
+        <v>0.4331340269998723</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>886</v>
@@ -1571,19 +1571,19 @@
         <v>897396</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>854835</v>
+        <v>853567</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>948053</v>
+        <v>942012</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4202409183891241</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4003101219656696</v>
+        <v>0.3997161415757427</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.44396324076001</v>
+        <v>0.4411341885842935</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>279254</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>250926</v>
+        <v>250542</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>309597</v>
+        <v>309078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2590737492387494</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2327924428564764</v>
+        <v>0.232436335158697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2872237075941649</v>
+        <v>0.2867421534096446</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>212</v>
@@ -1621,19 +1621,19 @@
         <v>224261</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>199303</v>
+        <v>197899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>250647</v>
+        <v>251713</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2120590819857505</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.188459040630803</v>
+        <v>0.1871322712143202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2370099124736923</v>
+        <v>0.23801804074559</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>481</v>
@@ -1642,19 +1642,19 @@
         <v>503515</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>463427</v>
+        <v>468427</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>545478</v>
+        <v>541801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2357904995292633</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2170178679999911</v>
+        <v>0.2193592641113948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2554417043111513</v>
+        <v>0.2537197194114639</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>10619</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4873</v>
+        <v>5313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19355</v>
+        <v>20275</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.009468003664691523</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004344641877292659</v>
+        <v>0.004736721439863797</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01725678122548701</v>
+        <v>0.01807694242553175</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1767,19 +1767,19 @@
         <v>5046</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1950</v>
+        <v>1847</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11266</v>
+        <v>11027</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005076767998978707</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001962196467829217</v>
+        <v>0.001857844023688434</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01133435402576351</v>
+        <v>0.0110945585791094</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -1788,19 +1788,19 @@
         <v>15665</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8491</v>
+        <v>9145</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25963</v>
+        <v>26792</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.007404872895530283</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004013525902553685</v>
+        <v>0.004322774328068681</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01227274227568103</v>
+        <v>0.01266451015357383</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>21908</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14184</v>
+        <v>14716</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32665</v>
+        <v>32859</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01953314523993919</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01264664142968113</v>
+        <v>0.01312072168008271</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02912388145302884</v>
+        <v>0.0292965687438833</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1838,19 +1838,19 @@
         <v>41749</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29754</v>
+        <v>29778</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55894</v>
+        <v>57726</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04200317759192056</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0299351467781514</v>
+        <v>0.02995958716954978</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05623469826202183</v>
+        <v>0.05807802699830721</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1859,19 +1859,19 @@
         <v>63657</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49309</v>
+        <v>49822</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81701</v>
+        <v>81171</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03009022271391621</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02330791607410094</v>
+        <v>0.02355071399235716</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0386198000116953</v>
+        <v>0.03836922781785009</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>121141</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101375</v>
+        <v>101014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143289</v>
+        <v>143076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.10800792518528</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09038502813936494</v>
+        <v>0.09006286811181545</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1277544194305392</v>
+        <v>0.1275653051923016</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1909,19 +1909,19 @@
         <v>140971</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120749</v>
+        <v>119081</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164659</v>
+        <v>160539</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1418302643527967</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1214848873553067</v>
+        <v>0.1198068016604366</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1656626820869327</v>
+        <v>0.1615173858012026</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>257</v>
@@ -1930,19 +1930,19 @@
         <v>262112</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233817</v>
+        <v>232227</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>295376</v>
+        <v>293735</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1238986479643736</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1105240219571616</v>
+        <v>0.1097724574142023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1396222653223473</v>
+        <v>0.1388467713794676</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>117419</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>96655</v>
+        <v>98244</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>138981</v>
+        <v>138942</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1046894003749502</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0861763411880847</v>
+        <v>0.08759355983911728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1239138855024956</v>
+        <v>0.1238794859631516</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>136</v>
@@ -1980,19 +1980,19 @@
         <v>139372</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>118543</v>
+        <v>119859</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>161712</v>
+        <v>164471</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1402220470486422</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1192656495837147</v>
+        <v>0.1205897699153941</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1626975395464458</v>
+        <v>0.1654733848944582</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>249</v>
@@ -2001,19 +2001,19 @@
         <v>256791</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>227177</v>
+        <v>227362</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>290360</v>
+        <v>287902</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1213836755728469</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1073849928497476</v>
+        <v>0.1074727694850693</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1372514199839526</v>
+        <v>0.1360895135420199</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>540326</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>506134</v>
+        <v>505178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>576297</v>
+        <v>574304</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4817485176064473</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4512628272520227</v>
+        <v>0.45041102800121</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5138196945722097</v>
+        <v>0.512042550661908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>490</v>
@@ -2051,19 +2051,19 @@
         <v>492925</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>461178</v>
+        <v>462069</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>527407</v>
+        <v>525893</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4959304860472031</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4639902644572562</v>
+        <v>0.4648866454717557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5306222274224133</v>
+        <v>0.5290993038710183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1023</v>
@@ -2072,19 +2072,19 @@
         <v>1033251</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>987008</v>
+        <v>987846</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1075788</v>
+        <v>1079874</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4884116205881106</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4665525023359572</v>
+        <v>0.466948747446764</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5085186121412001</v>
+        <v>0.5104496723423508</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>310180</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>276844</v>
+        <v>280925</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>339904</v>
+        <v>338181</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2765530079286918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2468306708595638</v>
+        <v>0.250469354105548</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3030540698606985</v>
+        <v>0.3015183936615313</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>170</v>
@@ -2122,19 +2122,19 @@
         <v>173877</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>151875</v>
+        <v>152521</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>197460</v>
+        <v>199683</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1749372569604587</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1528008563898077</v>
+        <v>0.1534512681381562</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1986638177870605</v>
+        <v>0.2009001319550473</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>478</v>
@@ -2143,19 +2143,19 @@
         <v>484057</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>447711</v>
+        <v>445523</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>523101</v>
+        <v>523556</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2288109602652225</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2116301935749329</v>
+        <v>0.2105958188204211</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2472666586297318</v>
+        <v>0.2474818327316587</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>5462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1739</v>
+        <v>1899</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14132</v>
+        <v>13658</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01221432697731015</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003889109053508271</v>
+        <v>0.004245970024025806</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0316000079467118</v>
+        <v>0.03054194309969643</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2268,19 +2268,19 @@
         <v>5852</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2034</v>
+        <v>1968</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12626</v>
+        <v>13999</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01715418337792008</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005962200173924747</v>
+        <v>0.005769113251000864</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03700995655078718</v>
+        <v>0.04103250958450008</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2289,19 +2289,19 @@
         <v>11315</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5534</v>
+        <v>5728</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20769</v>
+        <v>22827</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01435202672278891</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007019837444036912</v>
+        <v>0.007266240799943092</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02634482248429108</v>
+        <v>0.02895561988176146</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>16426</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10220</v>
+        <v>9597</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26083</v>
+        <v>26286</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03673169818291582</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02285231706017302</v>
+        <v>0.02145938184461356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0583262275840767</v>
+        <v>0.05877882010520935</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2339,19 +2339,19 @@
         <v>8949</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4095</v>
+        <v>3793</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16927</v>
+        <v>15989</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02623030887696151</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01200202972391218</v>
+        <v>0.01111663021856879</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04961756207902567</v>
+        <v>0.04686592237584124</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2360,19 +2360,19 @@
         <v>25375</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16939</v>
+        <v>16358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37912</v>
+        <v>36603</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03218727109314453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0214864895105548</v>
+        <v>0.02074938596455171</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04808927143189454</v>
+        <v>0.04642923741188835</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>57959</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>45277</v>
+        <v>44644</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>72953</v>
+        <v>73460</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1296048780437932</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1012461931503512</v>
+        <v>0.09982992419775387</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1631338951031457</v>
+        <v>0.1642656811456281</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>61</v>
@@ -2410,19 +2410,19 @@
         <v>62631</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>48101</v>
+        <v>48792</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>77132</v>
+        <v>78968</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1835840873480399</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1409931727514649</v>
+        <v>0.1430177536764766</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2260881965110628</v>
+        <v>0.2314709297222551</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>118</v>
@@ -2431,19 +2431,19 @@
         <v>120590</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>102400</v>
+        <v>100959</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>140497</v>
+        <v>141758</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1529641283200938</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1298905002639682</v>
+        <v>0.1280619104585142</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.178214397336535</v>
+        <v>0.179814258344077</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>58192</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44160</v>
+        <v>44683</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>74501</v>
+        <v>74517</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1301242043329019</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09874762310065129</v>
+        <v>0.09991733687572703</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1665952882353533</v>
+        <v>0.166629305005749</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>48</v>
@@ -2481,19 +2481,19 @@
         <v>47376</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>36046</v>
+        <v>35216</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60319</v>
+        <v>60584</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1388668310626103</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1056574047897758</v>
+        <v>0.103224484874811</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1768062164664488</v>
+        <v>0.1775848721183263</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>105</v>
@@ -2502,19 +2502,19 @@
         <v>105567</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>86939</v>
+        <v>88201</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>125046</v>
+        <v>123985</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1339075351464466</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1102791946159157</v>
+        <v>0.1118790605574318</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.158616253736285</v>
+        <v>0.1572701076928713</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>160730</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>139727</v>
+        <v>139471</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>183083</v>
+        <v>181838</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3594133526275147</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3124488147421707</v>
+        <v>0.3118763097521228</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4093988939950297</v>
+        <v>0.4066138743134985</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>125</v>
@@ -2552,19 +2552,19 @@
         <v>123985</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>106234</v>
+        <v>104975</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>142078</v>
+        <v>139927</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3634252992409017</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3113923218521695</v>
+        <v>0.3077015964682331</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4164573678899117</v>
+        <v>0.4101530191471214</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>284</v>
@@ -2573,19 +2573,19 @@
         <v>284715</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>260013</v>
+        <v>259548</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>312957</v>
+        <v>314361</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3611495037539428</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3298154171120958</v>
+        <v>0.3292259523486259</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3969728199541127</v>
+        <v>0.3987537482577875</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>148431</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>126849</v>
+        <v>128812</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>169270</v>
+        <v>171119</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3319115398355642</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2836526107586049</v>
+        <v>0.2880401470589838</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3785102578827828</v>
+        <v>0.3826454692007357</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>91</v>
@@ -2623,19 +2623,19 @@
         <v>92365</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>77205</v>
+        <v>76742</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>109506</v>
+        <v>109822</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2707392900935665</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2263024804407758</v>
+        <v>0.2249442266062807</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3209823107477164</v>
+        <v>0.3219083374423925</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>233</v>
@@ -2644,19 +2644,19 @@
         <v>240796</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>216012</v>
+        <v>214181</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>268845</v>
+        <v>269445</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3054395349635834</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.274002340194356</v>
+        <v>0.2716796411115079</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3410190376975716</v>
+        <v>0.3417796760433921</v>
       </c>
     </row>
     <row r="31">
@@ -2748,19 +2748,19 @@
         <v>23349</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14363</v>
+        <v>14798</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35811</v>
+        <v>36096</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007226806651419867</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00444547203704057</v>
+        <v>0.004580176162235656</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01108414373520695</v>
+        <v>0.01117228338079289</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -2769,19 +2769,19 @@
         <v>48626</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36573</v>
+        <v>36081</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>65640</v>
+        <v>63519</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01466852256889928</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01103263489796807</v>
+        <v>0.01088438503204984</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01980118479269493</v>
+        <v>0.01916138576637604</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>67</v>
@@ -2790,19 +2790,19 @@
         <v>71974</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>56269</v>
+        <v>56708</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>91786</v>
+        <v>91859</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01099549242540227</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008596156285314783</v>
+        <v>0.008663255590748559</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01402208579429963</v>
+        <v>0.01403326938721486</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>97752</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>81200</v>
+        <v>79446</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>119361</v>
+        <v>119445</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03025605800472411</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02513287861296827</v>
+        <v>0.02459005019222277</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03694453538978178</v>
+        <v>0.03697054172618353</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>154</v>
@@ -2840,19 +2840,19 @@
         <v>159024</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>134403</v>
+        <v>136103</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>184006</v>
+        <v>187130</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04797138445875875</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04054420906043598</v>
+        <v>0.04105716842414973</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0555076102579032</v>
+        <v>0.05645002008410239</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>252</v>
@@ -2861,19 +2861,19 @@
         <v>256776</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>225208</v>
+        <v>225532</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>289053</v>
+        <v>287586</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03922757741356872</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0344050340456044</v>
+        <v>0.03445444200242195</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04415853406369576</v>
+        <v>0.0439345155690186</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>446064</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>403585</v>
+        <v>408198</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>486841</v>
+        <v>489422</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.138064780581184</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1249168645814586</v>
+        <v>0.1263445900941751</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1506859850082445</v>
+        <v>0.1514848662410319</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>563</v>
@@ -2911,19 +2911,19 @@
         <v>575442</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>536278</v>
+        <v>533140</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>614990</v>
+        <v>622167</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1735890901532557</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1617746613642246</v>
+        <v>0.1608280914136104</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.185518944422416</v>
+        <v>0.1876841273870074</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1002</v>
@@ -2932,19 +2932,19 @@
         <v>1021506</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>964899</v>
+        <v>964688</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1084570</v>
+        <v>1082932</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1560552496610841</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.147407406628467</v>
+        <v>0.1473751329436758</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.165689563323982</v>
+        <v>0.1654392834055242</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>412046</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>373868</v>
+        <v>376359</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>449921</v>
+        <v>451288</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1275356565131797</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1157188516984293</v>
+        <v>0.1164898350067142</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1392587245926608</v>
+        <v>0.1396819079811378</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>568</v>
@@ -2982,19 +2982,19 @@
         <v>583993</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>541823</v>
+        <v>539947</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>630505</v>
+        <v>633163</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.176168375059866</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1634475300581752</v>
+        <v>0.1628814755505676</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1901993418893794</v>
+        <v>0.1910012638893328</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>969</v>
@@ -3003,19 +3003,19 @@
         <v>996039</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>935454</v>
+        <v>941444</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1058519</v>
+        <v>1053011</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1521645776611219</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1429091276889589</v>
+        <v>0.1438241891547511</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1617096190875185</v>
+        <v>0.1608682337553337</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>1388304</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1329260</v>
+        <v>1328594</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1442191</v>
+        <v>1444338</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4297051963506053</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4114299040001993</v>
+        <v>0.4112239827478224</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4463840869573191</v>
+        <v>0.4470486300876526</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1307</v>
@@ -3053,19 +3053,19 @@
         <v>1321409</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1267828</v>
+        <v>1262378</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1376983</v>
+        <v>1374009</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3986187538986837</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3824553194681177</v>
+        <v>0.3808113857856462</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4153832810850354</v>
+        <v>0.4144861393887525</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2674</v>
@@ -3074,19 +3074,19 @@
         <v>2709713</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2632547</v>
+        <v>2621499</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2793770</v>
+        <v>2787048</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4139621829473254</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4021736200950459</v>
+        <v>0.4004858365175856</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4268035636765318</v>
+        <v>0.4257766721507614</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>863315</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>816164</v>
+        <v>813315</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>915903</v>
+        <v>914958</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2672115018988871</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.252617637873862</v>
+        <v>0.2517357469501025</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2834884771377859</v>
+        <v>0.2831961317920007</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>596</v>
@@ -3124,19 +3124,19 @@
         <v>626476</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>583266</v>
+        <v>576052</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>673360</v>
+        <v>675236</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1889838738605366</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1759491386617313</v>
+        <v>0.1737730248476424</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2031269544214577</v>
+        <v>0.2036928829346064</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1438</v>
@@ -3145,19 +3145,19 @@
         <v>1489790</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1416736</v>
+        <v>1422931</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1562670</v>
+        <v>1559367</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2275949198914977</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2164344160782206</v>
+        <v>0.2173808615115712</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2387287594697983</v>
+        <v>0.2382240968784361</v>
       </c>
     </row>
     <row r="38">
@@ -3489,19 +3489,19 @@
         <v>44515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33216</v>
+        <v>30983</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58802</v>
+        <v>59397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04264138392249085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03181781265373828</v>
+        <v>0.02967910295387241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05632687351359441</v>
+        <v>0.05689704612498644</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -3510,19 +3510,19 @@
         <v>86499</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69047</v>
+        <v>68309</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106893</v>
+        <v>107050</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07751619464721658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06187692668561488</v>
+        <v>0.06121480787639641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09579234972173779</v>
+        <v>0.09593288323070738</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -3531,19 +3531,19 @@
         <v>131014</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>108388</v>
+        <v>108128</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>153801</v>
+        <v>154405</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06065965845007491</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05018407444039871</v>
+        <v>0.0500636541187589</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07121013856627034</v>
+        <v>0.07149003937265598</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>48213</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35121</v>
+        <v>36195</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64273</v>
+        <v>65018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04618431903369927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03364258202660338</v>
+        <v>0.03467214484824176</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06156794976311179</v>
+        <v>0.0622816714850743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -3581,19 +3581,19 @@
         <v>58386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44910</v>
+        <v>45088</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75262</v>
+        <v>75274</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05232264454616407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04024616353189231</v>
+        <v>0.04040540597547758</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06744601193200249</v>
+        <v>0.06745666275177843</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>98</v>
@@ -3602,19 +3602,19 @@
         <v>106599</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87417</v>
+        <v>88575</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>128457</v>
+        <v>130159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04935572073953989</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04047447466538795</v>
+        <v>0.04101051527675421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05947610038098013</v>
+        <v>0.06026380072885123</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>141503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120746</v>
+        <v>118454</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>165057</v>
+        <v>163066</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1355478429896071</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1156638569820104</v>
+        <v>0.1134691704945155</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1581108465983324</v>
+        <v>0.1562034854720029</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>241</v>
@@ -3652,19 +3652,19 @@
         <v>261172</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>233353</v>
+        <v>233119</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>290684</v>
+        <v>289997</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.234050044586372</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2091195796635749</v>
+        <v>0.2089096916695309</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2604974645608844</v>
+        <v>0.2598811412936666</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>373</v>
@@ -3673,19 +3673,19 @@
         <v>402675</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>364187</v>
+        <v>367139</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>441956</v>
+        <v>438081</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1864395804086608</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1686194701254529</v>
+        <v>0.16998632774297</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2046266645818638</v>
+        <v>0.2028324207209836</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>116285</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95528</v>
+        <v>96629</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>137496</v>
+        <v>139370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1113905929719191</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0915073438171482</v>
+        <v>0.09256248516405319</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1317092300909065</v>
+        <v>0.1335041632654</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>132</v>
@@ -3723,19 +3723,19 @@
         <v>143299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120105</v>
+        <v>122181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166870</v>
+        <v>167715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1284173656063603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1076322990972303</v>
+        <v>0.1094927827307698</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1495411128863354</v>
+        <v>0.1502980846856426</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>240</v>
@@ -3744,19 +3744,19 @@
         <v>259583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>229454</v>
+        <v>228083</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>296306</v>
+        <v>292288</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1201875744399391</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1062377744333063</v>
+        <v>0.1056030685753764</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1371901072034452</v>
+        <v>0.1353297573080246</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>244163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>217066</v>
+        <v>215356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>272358</v>
+        <v>273584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2338872921352372</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2079302201800304</v>
+        <v>0.2062922323452566</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2608956102430696</v>
+        <v>0.2620695946317295</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>206</v>
@@ -3794,19 +3794,19 @@
         <v>222566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>197339</v>
+        <v>193557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>252512</v>
+        <v>251273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1994528521016312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1768458164923472</v>
+        <v>0.1734566196544932</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.226288792482345</v>
+        <v>0.2251791926923498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>434</v>
@@ -3815,19 +3815,19 @@
         <v>466729</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>431743</v>
+        <v>428620</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>507133</v>
+        <v>507273</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.216096537695694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.199897814847309</v>
+        <v>0.1984522233002527</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2348037061506793</v>
+        <v>0.2348685743932837</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>449256</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>414952</v>
+        <v>420119</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>483278</v>
+        <v>480181</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4303485689470465</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3974881103672827</v>
+        <v>0.4024378874492984</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4629392496981413</v>
+        <v>0.4599716669896932</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>316</v>
@@ -3865,19 +3865,19 @@
         <v>343960</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>311234</v>
+        <v>312200</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>373586</v>
+        <v>374373</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3082408985122558</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2789129066663076</v>
+        <v>0.27977855365031</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3347897810613071</v>
+        <v>0.3354948005166941</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>739</v>
@@ -3886,19 +3886,19 @@
         <v>793216</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>744313</v>
+        <v>749591</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>839724</v>
+        <v>840173</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3672609282660914</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3446184253001891</v>
+        <v>0.3470624579634696</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3887942248920306</v>
+        <v>0.3890018572330997</v>
       </c>
     </row>
     <row r="10">
@@ -3990,19 +3990,19 @@
         <v>13032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7014</v>
+        <v>7118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23512</v>
+        <v>23571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01335204060635032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007186590473908178</v>
+        <v>0.007292522100218604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02408923632562188</v>
+        <v>0.02414929307321517</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -4011,19 +4011,19 @@
         <v>33930</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23286</v>
+        <v>24248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46295</v>
+        <v>46590</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0310917710969591</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02133841612916275</v>
+        <v>0.0222191978950209</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04242241660649326</v>
+        <v>0.04269282440082165</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -4032,19 +4032,19 @@
         <v>46962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35113</v>
+        <v>34403</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61657</v>
+        <v>61248</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02271638513309774</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01698469022331943</v>
+        <v>0.01664110717214816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02982439574155117</v>
+        <v>0.02962670015819709</v>
       </c>
     </row>
     <row r="12">
@@ -4061,19 +4061,19 @@
         <v>24213</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15844</v>
+        <v>15853</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35728</v>
+        <v>36458</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02480699109265203</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01623273568526527</v>
+        <v>0.01624172811504035</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03660536132425649</v>
+        <v>0.03735326466130758</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -4082,19 +4082,19 @@
         <v>48651</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36186</v>
+        <v>36598</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63661</v>
+        <v>64096</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04458126352129108</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03315850487416842</v>
+        <v>0.03353667602042763</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05833543676704545</v>
+        <v>0.05873379943322463</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -4103,19 +4103,19 @@
         <v>72864</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55146</v>
+        <v>57608</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>90190</v>
+        <v>90878</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03524531764364258</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02667500729824525</v>
+        <v>0.02786572974602746</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04362602287368476</v>
+        <v>0.04395914282581233</v>
       </c>
     </row>
     <row r="13">
@@ -4132,19 +4132,19 @@
         <v>152457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129465</v>
+        <v>128643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177656</v>
+        <v>177618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1561995016808001</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1326432791740461</v>
+        <v>0.1318007094121706</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1820164708731081</v>
+        <v>0.1819776341808257</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>233</v>
@@ -4153,19 +4153,19 @@
         <v>249766</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>222082</v>
+        <v>222689</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>277386</v>
+        <v>280753</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2288721822470551</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2035034718263522</v>
+        <v>0.2040601293857782</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2541810860107835</v>
+        <v>0.2572662559457945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>374</v>
@@ -4174,19 +4174,19 @@
         <v>402223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>367647</v>
+        <v>369073</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>439696</v>
+        <v>441708</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1945615285934942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1778364855101812</v>
+        <v>0.1785261049331205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2126877419400555</v>
+        <v>0.2136609279513753</v>
       </c>
     </row>
     <row r="14">
@@ -4203,19 +4203,19 @@
         <v>129330</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107859</v>
+        <v>108335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152845</v>
+        <v>152024</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1325047213623374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1105065276060316</v>
+        <v>0.1109945360018082</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1565969950828132</v>
+        <v>0.1557554746075844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>137</v>
@@ -4224,19 +4224,19 @@
         <v>147057</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>125069</v>
+        <v>124354</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>171869</v>
+        <v>169363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1347545672923003</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1146066102975246</v>
+        <v>0.1139514091835405</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1574909252710987</v>
+        <v>0.1551945920828118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>257</v>
@@ -4245,19 +4245,19 @@
         <v>276387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>244621</v>
+        <v>244582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>307168</v>
+        <v>309562</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1336923567907013</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1183268716092147</v>
+        <v>0.118307964767329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1485815697927341</v>
+        <v>0.1497399836987159</v>
       </c>
     </row>
     <row r="15">
@@ -4274,19 +4274,19 @@
         <v>327912</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>298002</v>
+        <v>297778</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>356956</v>
+        <v>356946</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3359611374567515</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.305316751931504</v>
+        <v>0.305087434407952</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3657185785810642</v>
+        <v>0.3657083298437216</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>321</v>
@@ -4295,19 +4295,19 @@
         <v>344305</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>312293</v>
+        <v>311810</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>376142</v>
+        <v>375278</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3155021933600612</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2861681724202549</v>
+        <v>0.2857257038568293</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3446762632508744</v>
+        <v>0.3438840275637919</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>635</v>
@@ -4316,19 +4316,19 @@
         <v>672217</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>627835</v>
+        <v>631954</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>714047</v>
+        <v>716957</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3251613904551668</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3036932995008061</v>
+        <v>0.3056856200945681</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3453953357811989</v>
+        <v>0.3468028634611739</v>
       </c>
     </row>
     <row r="16">
@@ -4345,19 +4345,19 @@
         <v>329097</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>297861</v>
+        <v>298174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>358931</v>
+        <v>359639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3371756078011086</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3051722115266163</v>
+        <v>0.3054934787715833</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.36774222849873</v>
+        <v>0.3684668556159331</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>249</v>
@@ -4366,19 +4366,19 @@
         <v>267583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>239396</v>
+        <v>242661</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>298123</v>
+        <v>298993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2451980224823331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2193689234631413</v>
+        <v>0.2223608420740058</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2731832392273062</v>
+        <v>0.2739809749190512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>562</v>
@@ -4387,19 +4387,19 @@
         <v>596680</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>555750</v>
+        <v>558710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>638916</v>
+        <v>643443</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2886230213838974</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2688246835538349</v>
+        <v>0.2702565173300123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.309053375604187</v>
+        <v>0.3112432417322732</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>9075</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4859</v>
+        <v>4228</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16851</v>
+        <v>16927</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01026581237607351</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005496413135976995</v>
+        <v>0.004783385962706274</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01906220956688437</v>
+        <v>0.01914906763555923</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -4512,19 +4512,19 @@
         <v>7076</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2966</v>
+        <v>2959</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13934</v>
+        <v>13760</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.008088714903104378</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003389939221707318</v>
+        <v>0.003382899737479369</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01592773451242158</v>
+        <v>0.01572865048271103</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -4533,19 +4533,19 @@
         <v>16151</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9233</v>
+        <v>9087</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25894</v>
+        <v>25794</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.009182939181099296</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005249547165323448</v>
+        <v>0.005166820476437777</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01472251903165605</v>
+        <v>0.0146659591312166</v>
       </c>
     </row>
     <row r="19">
@@ -4562,19 +4562,19 @@
         <v>17281</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10026</v>
+        <v>10524</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26532</v>
+        <v>27573</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01954948307607187</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01134229461936728</v>
+        <v>0.0119049678204517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03001414312857527</v>
+        <v>0.03119164471693851</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -4583,19 +4583,19 @@
         <v>28446</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19407</v>
+        <v>18762</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41306</v>
+        <v>39863</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03251687531377834</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02218433113165841</v>
+        <v>0.02144658740945321</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04721682981743392</v>
+        <v>0.04556781253660967</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -4604,19 +4604,19 @@
         <v>45728</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34599</v>
+        <v>33273</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61862</v>
+        <v>59899</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02599937410634277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01967195188204353</v>
+        <v>0.01891805445310289</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03517265302988951</v>
+        <v>0.03405699925002766</v>
       </c>
     </row>
     <row r="20">
@@ -4633,19 +4633,19 @@
         <v>86997</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69744</v>
+        <v>70446</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105801</v>
+        <v>106318</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09841444562017021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07889697869903572</v>
+        <v>0.07969137569444697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1196860821274341</v>
+        <v>0.1202718853289042</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>160</v>
@@ -4654,19 +4654,19 @@
         <v>172179</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>150615</v>
+        <v>149472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>201120</v>
+        <v>196693</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1968179411917329</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1721682411123171</v>
+        <v>0.1708617811722601</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.229900503369493</v>
+        <v>0.224839602655403</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>242</v>
@@ -4675,19 +4675,19 @@
         <v>259176</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>228933</v>
+        <v>230002</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>289967</v>
+        <v>289975</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1473596623453012</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1301644828823943</v>
+        <v>0.1307721992251849</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1648666313420225</v>
+        <v>0.1648714554648234</v>
       </c>
     </row>
     <row r="21">
@@ -4704,19 +4704,19 @@
         <v>135992</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>115148</v>
+        <v>113080</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>160605</v>
+        <v>159036</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1538395209777169</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1302607695095298</v>
+        <v>0.1279212056279191</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1816826981296495</v>
+        <v>0.1799085585087136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>108</v>
@@ -4725,19 +4725,19 @@
         <v>113807</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>94653</v>
+        <v>95431</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>136388</v>
+        <v>135201</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1300927604758331</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1081977855709494</v>
+        <v>0.1090873620309024</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1559055518677241</v>
+        <v>0.1545482822471189</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>238</v>
@@ -4746,19 +4746,19 @@
         <v>249799</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>219560</v>
+        <v>222593</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>281055</v>
+        <v>280662</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1420280468778032</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1248354655658279</v>
+        <v>0.1265600582798415</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1597995421478032</v>
+        <v>0.1595760937603829</v>
       </c>
     </row>
     <row r="22">
@@ -4775,19 +4775,19 @@
         <v>340264</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>308683</v>
+        <v>308095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>369834</v>
+        <v>371977</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3849215164887779</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3491951302906866</v>
+        <v>0.3485298941653055</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4183715585203844</v>
+        <v>0.4207964347432646</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>298</v>
@@ -4796,19 +4796,19 @@
         <v>317484</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>289427</v>
+        <v>288676</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>346315</v>
+        <v>347360</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3629166075989001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.330844440330171</v>
+        <v>0.3299861482277558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3958735664559401</v>
+        <v>0.3970672110513814</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>617</v>
@@ -4817,19 +4817,19 @@
         <v>657749</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>617148</v>
+        <v>617582</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>700696</v>
+        <v>700397</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3739764273090082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3508920062720888</v>
+        <v>0.351138779390897</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3983952452524112</v>
+        <v>0.3982248879285169</v>
       </c>
     </row>
     <row r="23">
@@ -4846,19 +4846,19 @@
         <v>294375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>264238</v>
+        <v>267710</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>322723</v>
+        <v>327229</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3330092214611896</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2989167581811423</v>
+        <v>0.3028445181930656</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3650783707048254</v>
+        <v>0.3701755724644985</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>220</v>
@@ -4867,19 +4867,19 @@
         <v>235821</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>210575</v>
+        <v>208272</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>262635</v>
+        <v>261399</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2695671005166512</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2407083195850441</v>
+        <v>0.2380761526776886</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3002187716563573</v>
+        <v>0.2988055244084316</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>492</v>
@@ -4888,19 +4888,19 @@
         <v>530196</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>488693</v>
+        <v>494955</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>572530</v>
+        <v>573811</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3014535501804454</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2778561756660907</v>
+        <v>0.2814168009942103</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3255238550034896</v>
+        <v>0.3262517616926933</v>
       </c>
     </row>
     <row r="24">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11014</v>
+        <v>13152</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006015563769205366</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0219374427815095</v>
+        <v>0.02619610853637761</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -5013,19 +5013,19 @@
         <v>8124</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3192</v>
+        <v>3426</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16104</v>
+        <v>16105</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01794461880465726</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007049785741137035</v>
+        <v>0.007568357863476649</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03556943941200329</v>
+        <v>0.03557209173494329</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -5034,19 +5034,19 @@
         <v>11144</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4985</v>
+        <v>5252</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20947</v>
+        <v>21100</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0116719817947803</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005221007146052542</v>
+        <v>0.005500249360941073</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02193840488135409</v>
+        <v>0.02209860861432921</v>
       </c>
     </row>
     <row r="26">
@@ -5063,19 +5063,19 @@
         <v>10366</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5186</v>
+        <v>4844</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21984</v>
+        <v>20398</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02064639184299278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01033009332113015</v>
+        <v>0.00964876222337786</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04378872242171006</v>
+        <v>0.04062788717337923</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -5084,19 +5084,19 @@
         <v>26298</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16841</v>
+        <v>17318</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>38040</v>
+        <v>39882</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05808735726814645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0371987494031677</v>
+        <v>0.03825110703354236</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08402143031146407</v>
+        <v>0.08809149619843211</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -5105,19 +5105,19 @@
         <v>36664</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25816</v>
+        <v>25342</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>51242</v>
+        <v>50763</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03839983091225467</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02703791885947199</v>
+        <v>0.02654145656233625</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05366803890553783</v>
+        <v>0.05316620892136074</v>
       </c>
     </row>
     <row r="27">
@@ -5134,19 +5134,19 @@
         <v>55920</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>41948</v>
+        <v>42316</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>72415</v>
+        <v>71795</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1113811589371704</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08355184035769318</v>
+        <v>0.08428502415093672</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1442374408097606</v>
+        <v>0.1430023896908267</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>71</v>
@@ -5155,19 +5155,19 @@
         <v>73672</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>58641</v>
+        <v>59003</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>90127</v>
+        <v>90286</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1627262381693115</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1295265092020847</v>
+        <v>0.1303260729517444</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1990713150269614</v>
+        <v>0.1994228411278967</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>122</v>
@@ -5176,19 +5176,19 @@
         <v>129592</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>110223</v>
+        <v>109132</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>155524</v>
+        <v>152766</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1357275326298167</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1154414436058075</v>
+        <v>0.1142988524357384</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1628875694687811</v>
+        <v>0.1599988618194078</v>
       </c>
     </row>
     <row r="28">
@@ -5205,19 +5205,19 @@
         <v>66497</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51233</v>
+        <v>51738</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>85469</v>
+        <v>85545</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1324496508661356</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1020453258931847</v>
+        <v>0.1030524745091637</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1702378441061994</v>
+        <v>0.1703890814879308</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>57</v>
@@ -5226,19 +5226,19 @@
         <v>60244</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>47444</v>
+        <v>47465</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>77074</v>
+        <v>76668</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1330661268559688</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1047936681632771</v>
+        <v>0.1048409901470014</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1702400074443286</v>
+        <v>0.169344199346334</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>117</v>
@@ -5247,19 +5247,19 @@
         <v>126741</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>106003</v>
+        <v>106547</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>149792</v>
+        <v>149439</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.132741966216418</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1110221990864957</v>
+        <v>0.1115921551040563</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1568847740276457</v>
+        <v>0.1565143299678751</v>
       </c>
     </row>
     <row r="29">
@@ -5276,19 +5276,19 @@
         <v>168002</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>147781</v>
+        <v>145832</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>192429</v>
+        <v>191080</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3346272767723228</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2943510523864266</v>
+        <v>0.2904696532645054</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3832812690731441</v>
+        <v>0.3805942950014039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>124</v>
@@ -5297,19 +5297,19 @@
         <v>136497</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>117114</v>
+        <v>117795</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>158970</v>
+        <v>159110</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3014935110869575</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2586805481989729</v>
+        <v>0.2601839209972149</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3511313640872848</v>
+        <v>0.3514419213239757</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>275</v>
@@ -5318,19 +5318,19 @@
         <v>304499</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>275309</v>
+        <v>276238</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>335410</v>
+        <v>338607</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3189161891026886</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2883440417820955</v>
+        <v>0.2893171756829493</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3512911420567809</v>
+        <v>0.3546391760617859</v>
       </c>
     </row>
     <row r="30">
@@ -5347,19 +5347,19 @@
         <v>198252</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>176604</v>
+        <v>177315</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>220192</v>
+        <v>222918</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3948799578121731</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3517613661087794</v>
+        <v>0.3531767117103742</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4385790658397096</v>
+        <v>0.444009642651723</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>130</v>
@@ -5368,19 +5368,19 @@
         <v>147901</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>127319</v>
+        <v>126921</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>170410</v>
+        <v>169162</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3266821478149585</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2812223403531531</v>
+        <v>0.2803411151188629</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3763993571128272</v>
+        <v>0.3736434013392289</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>317</v>
@@ -5389,19 +5389,19 @@
         <v>346153</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>311582</v>
+        <v>312772</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>374497</v>
+        <v>377051</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3625424993440418</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3263343732798272</v>
+        <v>0.3275810890544645</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3922286860581143</v>
+        <v>0.3949038145442621</v>
       </c>
     </row>
     <row r="31">
@@ -5493,19 +5493,19 @@
         <v>69642</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>53900</v>
+        <v>54693</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>89087</v>
+        <v>88210</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02044673701644788</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01582498006258561</v>
+        <v>0.01605767856792226</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02615584061265991</v>
+        <v>0.02589819446178051</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>124</v>
@@ -5514,19 +5514,19 @@
         <v>135629</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>114084</v>
+        <v>114877</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>156995</v>
+        <v>160695</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03837059002315789</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03227525539656984</v>
+        <v>0.03249948360178154</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0444151959459905</v>
+        <v>0.04546193437916508</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>190</v>
@@ -5535,19 +5535,19 @@
         <v>205271</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>179997</v>
+        <v>180214</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>237797</v>
+        <v>236092</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02957484877082478</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02593343962607213</v>
+        <v>0.02596462137260815</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03426099884965555</v>
+        <v>0.03401539502852278</v>
       </c>
     </row>
     <row r="33">
@@ -5564,19 +5564,19 @@
         <v>100073</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>80795</v>
+        <v>79998</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>124211</v>
+        <v>121451</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02938128575044256</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02372117426754158</v>
+        <v>0.02348738099184083</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03646806753327041</v>
+        <v>0.03565785135549956</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>150</v>
@@ -5585,19 +5585,19 @@
         <v>161781</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>137965</v>
+        <v>139030</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>191867</v>
+        <v>187654</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04576921116972159</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03903128459667309</v>
+        <v>0.0393325957397205</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0542806868515506</v>
+        <v>0.05308886785910789</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>243</v>
@@ -5606,19 +5606,19 @@
         <v>261855</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>230427</v>
+        <v>231759</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>295874</v>
+        <v>295085</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03772719299446938</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03319914579815642</v>
+        <v>0.03339108782318247</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04262854246417886</v>
+        <v>0.04251496696394438</v>
       </c>
     </row>
     <row r="34">
@@ -5635,19 +5635,19 @@
         <v>436877</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>394083</v>
+        <v>395487</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>475222</v>
+        <v>475768</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1282661704643101</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1157019361317179</v>
+        <v>0.1161141871578456</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.139524405450223</v>
+        <v>0.1396846822667743</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>705</v>
@@ -5656,19 +5656,19 @@
         <v>756789</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>709803</v>
+        <v>704633</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>806966</v>
+        <v>809624</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2141015120819873</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2008086954043428</v>
+        <v>0.1993461731125452</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2282969835444387</v>
+        <v>0.2290489592499996</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1111</v>
@@ -5677,19 +5677,19 @@
         <v>1193666</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1129214</v>
+        <v>1129991</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1254201</v>
+        <v>1260056</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1719796839855356</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1626936171571158</v>
+        <v>0.1628056250227102</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1807013280928488</v>
+        <v>0.1815449624209365</v>
       </c>
     </row>
     <row r="35">
@@ -5706,19 +5706,19 @@
         <v>448104</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>407816</v>
+        <v>409177</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>490357</v>
+        <v>489454</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1315623282179958</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1197339545152753</v>
+        <v>0.1201334661620343</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1439678248703692</v>
+        <v>0.1437027597518859</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>434</v>
@@ -5727,19 +5727,19 @@
         <v>464406</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>426422</v>
+        <v>428909</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>502992</v>
+        <v>505652</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.131383949895944</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1206381784587689</v>
+        <v>0.1213415207382988</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1423003430043797</v>
+        <v>0.1430529590458559</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>852</v>
@@ -5748,19 +5748,19 @@
         <v>912509</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>856866</v>
+        <v>856694</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>977430</v>
+        <v>971020</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1314714851800821</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1234546458694292</v>
+        <v>0.1234297990119259</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.140825115462774</v>
+        <v>0.1399015608392172</v>
       </c>
     </row>
     <row r="36">
@@ -5777,19 +5777,19 @@
         <v>1080341</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1022012</v>
+        <v>1024132</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1132526</v>
+        <v>1132487</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3171861477284804</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3000607604362798</v>
+        <v>0.3006831254204187</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3325074556623147</v>
+        <v>0.3324959670546762</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>949</v>
@@ -5798,19 +5798,19 @@
         <v>1020852</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>964768</v>
+        <v>966013</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1076958</v>
+        <v>1078475</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2888067982747463</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2729403077139692</v>
+        <v>0.2732925487814478</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3046796519115803</v>
+        <v>0.3051088733321092</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1961</v>
@@ -5819,19 +5819,19 @@
         <v>2101193</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2031306</v>
+        <v>2027690</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2195693</v>
+        <v>2188407</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3027333471373785</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2926641981678137</v>
+        <v>0.2921432133145756</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3163485538657421</v>
+        <v>0.3152988657932504</v>
       </c>
     </row>
     <row r="37">
@@ -5848,19 +5848,19 @@
         <v>1270980</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1215310</v>
+        <v>1214467</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1330505</v>
+        <v>1331256</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3731573308223233</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3568125745272193</v>
+        <v>0.356565037843658</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3906338011072726</v>
+        <v>0.3908541812004258</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>915</v>
@@ -5869,19 +5869,19 @@
         <v>995264</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>938749</v>
+        <v>944873</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1054649</v>
+        <v>1054785</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.281567938554443</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2655792041999988</v>
+        <v>0.2673117975963804</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2983683137782475</v>
+        <v>0.2984069153337059</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2110</v>
@@ -5890,19 +5890,19 @@
         <v>2266245</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2180213</v>
+        <v>2184020</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2347716</v>
+        <v>2344724</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3265134419317095</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3141182136595011</v>
+        <v>0.3146667571196633</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3382515340674047</v>
+        <v>0.3378204701809137</v>
       </c>
     </row>
     <row r="38">
@@ -6234,19 +6234,19 @@
         <v>27495</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17486</v>
+        <v>18384</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40371</v>
+        <v>39483</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02442182075235889</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01553204855844582</v>
+        <v>0.01632970339090062</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03585925301242975</v>
+        <v>0.03507014057961136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -6255,19 +6255,19 @@
         <v>33696</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22780</v>
+        <v>23430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47792</v>
+        <v>46902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02683678171953744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01814248454003782</v>
+        <v>0.01866030475077242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03806289850671275</v>
+        <v>0.03735435373188861</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -6276,19 +6276,19 @@
         <v>61191</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46437</v>
+        <v>47971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79209</v>
+        <v>77618</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02569510025891175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01949958947916228</v>
+        <v>0.02014367544240182</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03326111557423608</v>
+        <v>0.03259307590044206</v>
       </c>
     </row>
     <row r="5">
@@ -6305,19 +6305,19 @@
         <v>28831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18975</v>
+        <v>19122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41052</v>
+        <v>40217</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02560840985350941</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01685448914116365</v>
+        <v>0.01698518986794376</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0364634582224581</v>
+        <v>0.0357220429883482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -6326,19 +6326,19 @@
         <v>55689</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42041</v>
+        <v>42135</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72213</v>
+        <v>72031</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04435238615073609</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03348265104256171</v>
+        <v>0.0335575790103163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0575126110167518</v>
+        <v>0.05736806256160856</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -6347,19 +6347,19 @@
         <v>84519</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67492</v>
+        <v>66282</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>104239</v>
+        <v>103535</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03549110411438384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02834098416617787</v>
+        <v>0.02783276242249195</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04377188755030761</v>
+        <v>0.04347617448815261</v>
       </c>
     </row>
     <row r="6">
@@ -6376,19 +6376,19 @@
         <v>168362</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>145947</v>
+        <v>145053</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>195338</v>
+        <v>194470</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1495449606373787</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1296354826330396</v>
+        <v>0.1288418395561749</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1735066244442388</v>
+        <v>0.1727357215281199</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>203</v>
@@ -6397,19 +6397,19 @@
         <v>218597</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>192928</v>
+        <v>191961</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>245990</v>
+        <v>249955</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1740984217504355</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1536548612820263</v>
+        <v>0.152884055750025</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1959148577106707</v>
+        <v>0.1990724066499332</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>366</v>
@@ -6418,19 +6418,19 @@
         <v>386959</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>353302</v>
+        <v>356003</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>425114</v>
+        <v>431678</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1624906849265474</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1483574781817359</v>
+        <v>0.1494917785666537</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1785127492179236</v>
+        <v>0.181269077434792</v>
       </c>
     </row>
     <row r="7">
@@ -6447,19 +6447,19 @@
         <v>233409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>207377</v>
+        <v>206766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>263520</v>
+        <v>261738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2073227861436768</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1841998035409403</v>
+        <v>0.1836570951394054</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2340677496546346</v>
+        <v>0.2324855192955228</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>275</v>
@@ -6468,19 +6468,19 @@
         <v>289127</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>257714</v>
+        <v>262240</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>319488</v>
+        <v>322017</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2302707598262066</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2052526640424226</v>
+        <v>0.2088573729241208</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.254451615721594</v>
+        <v>0.2564653177627205</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>505</v>
@@ -6489,19 +6489,19 @@
         <v>522536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>483802</v>
+        <v>483650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>564287</v>
+        <v>564148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2194220229445998</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2031566232578358</v>
+        <v>0.2030930673934037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2369538476863106</v>
+        <v>0.2368956076887495</v>
       </c>
     </row>
     <row r="8">
@@ -6518,19 +6518,19 @@
         <v>325668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>296110</v>
+        <v>291139</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>357297</v>
+        <v>353529</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2892698690768817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2630157605946979</v>
+        <v>0.2585999699758737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3173643276504375</v>
+        <v>0.3140176726893606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>330</v>
@@ -6539,19 +6539,19 @@
         <v>347950</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316654</v>
+        <v>315669</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>377122</v>
+        <v>381702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2771190474899705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2521938709683141</v>
+        <v>0.2514100364913459</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3003528902213572</v>
+        <v>0.3040010422233575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>635</v>
@@ -6560,19 +6560,19 @@
         <v>673617</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>632061</v>
+        <v>630350</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>718524</v>
+        <v>722719</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2828633919848442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2654132652154615</v>
+        <v>0.264694638724683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3017204384626703</v>
+        <v>0.3034821152314477</v>
       </c>
     </row>
     <row r="9">
@@ -6589,19 +6589,19 @@
         <v>342062</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>307873</v>
+        <v>314450</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>372500</v>
+        <v>375673</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3038321535361945</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2734636908058432</v>
+        <v>0.2793062063725187</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3308680211506957</v>
+        <v>0.3336863186431721</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>294</v>
@@ -6610,19 +6610,19 @@
         <v>310537</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>279898</v>
+        <v>278532</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>341502</v>
+        <v>342321</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2473226030631138</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.222920822975339</v>
+        <v>0.221832814235808</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2719836019611798</v>
+        <v>0.2726361639610192</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>607</v>
@@ -6631,19 +6631,19 @@
         <v>652599</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>608809</v>
+        <v>605613</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>698141</v>
+        <v>694155</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2740376957707129</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.255649328903684</v>
+        <v>0.2543071946177255</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2931613458225616</v>
+        <v>0.2914875986518732</v>
       </c>
     </row>
     <row r="10">
@@ -6735,19 +6735,19 @@
         <v>5952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2212</v>
+        <v>2070</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12964</v>
+        <v>12103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006549054795568503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002434445886920445</v>
+        <v>0.002277872552340842</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01426471918059882</v>
+        <v>0.0133174676204124</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -6756,19 +6756,19 @@
         <v>18623</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11409</v>
+        <v>10622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29663</v>
+        <v>28509</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01852704992229</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01135021268173298</v>
+        <v>0.01056670078988631</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02950934773897423</v>
+        <v>0.0283616791393215</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -6777,19 +6777,19 @@
         <v>24575</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16129</v>
+        <v>16549</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36364</v>
+        <v>36078</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01283962368380479</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008426525661673179</v>
+        <v>0.008646038434289351</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01899846900071724</v>
+        <v>0.01884933795749628</v>
       </c>
     </row>
     <row r="12">
@@ -6806,19 +6806,19 @@
         <v>13466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7595</v>
+        <v>7336</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22012</v>
+        <v>21601</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01481741514803097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008357070888139985</v>
+        <v>0.008071685087856316</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02422081473034412</v>
+        <v>0.02376854494011118</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -6827,19 +6827,19 @@
         <v>26348</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17100</v>
+        <v>17408</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38612</v>
+        <v>38546</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0262116294044024</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01701195084190597</v>
+        <v>0.0173177781963211</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03841199184519611</v>
+        <v>0.03834610723643075</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -6848,19 +6848,19 @@
         <v>39814</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28920</v>
+        <v>28541</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54883</v>
+        <v>55694</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02080139568473427</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01510958142876631</v>
+        <v>0.01491138837453953</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02867409046957379</v>
+        <v>0.02909780449936731</v>
       </c>
     </row>
     <row r="13">
@@ -6877,19 +6877,19 @@
         <v>82423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66942</v>
+        <v>67052</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102361</v>
+        <v>102476</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09069146101427833</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07365799239770546</v>
+        <v>0.07377914420155518</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1126302159963508</v>
+        <v>0.1127569562608293</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -6898,19 +6898,19 @@
         <v>111646</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94451</v>
+        <v>93408</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133263</v>
+        <v>133137</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1110678635129851</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09396249631463559</v>
+        <v>0.09292455171890712</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1325728628895299</v>
+        <v>0.1324475605222593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>189</v>
@@ -6919,19 +6919,19 @@
         <v>194069</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170021</v>
+        <v>168067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222207</v>
+        <v>219757</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1013926812315576</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08882879742744601</v>
+        <v>0.08780791536895774</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1160938916794067</v>
+        <v>0.1148140373390605</v>
       </c>
     </row>
     <row r="14">
@@ -6948,19 +6948,19 @@
         <v>151689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>129365</v>
+        <v>130568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174984</v>
+        <v>173515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1669072078576611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.142343508751313</v>
+        <v>0.1436665171465427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1925386026502846</v>
+        <v>0.1909224541597276</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>182</v>
@@ -6969,19 +6969,19 @@
         <v>194081</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167980</v>
+        <v>168482</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218381</v>
+        <v>220399</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1930766776839956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1671100726340269</v>
+        <v>0.1676092971423195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2172504886449016</v>
+        <v>0.2192581162957662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>333</v>
@@ -6990,19 +6990,19 @@
         <v>345771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>313753</v>
+        <v>311509</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>381144</v>
+        <v>376006</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1806508144437022</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1639226734224585</v>
+        <v>0.162750645152068</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1991317596748299</v>
+        <v>0.1964476454492645</v>
       </c>
     </row>
     <row r="15">
@@ -7019,19 +7019,19 @@
         <v>308700</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>279831</v>
+        <v>281720</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>336648</v>
+        <v>339980</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3396698580056459</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3079040296838478</v>
+        <v>0.3099823793794422</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3704210533958298</v>
+        <v>0.3740875842742082</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>298</v>
@@ -7040,19 +7040,19 @@
         <v>315263</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>288475</v>
+        <v>285709</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>346042</v>
+        <v>345432</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.313630813417909</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2869818998399192</v>
+        <v>0.2842299451961907</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3442508287367622</v>
+        <v>0.3436432196971123</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>601</v>
@@ -7061,19 +7061,19 @@
         <v>623963</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>584315</v>
+        <v>580629</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>664008</v>
+        <v>662074</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3259947477697437</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3052800194681905</v>
+        <v>0.3033544824736654</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.346916378306765</v>
+        <v>0.3459061263146722</v>
       </c>
     </row>
     <row r="16">
@@ -7090,19 +7090,19 @@
         <v>346594</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>318141</v>
+        <v>318567</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>375281</v>
+        <v>377700</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3813650031788153</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.350057012742336</v>
+        <v>0.3505261241982709</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4129298439742</v>
+        <v>0.4155920097040064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>321</v>
@@ -7111,19 +7111,19 @@
         <v>339242</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>309313</v>
+        <v>310825</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>369369</v>
+        <v>371417</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3374859660584179</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.307711311264309</v>
+        <v>0.3092157007363533</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3674567120034544</v>
+        <v>0.3694943033973733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>646</v>
@@ -7132,19 +7132,19 @@
         <v>685836</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>642247</v>
+        <v>646583</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>729390</v>
+        <v>730077</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3583207371864574</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3355471047038015</v>
+        <v>0.3378126709817828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3810757391661115</v>
+        <v>0.3814349028564389</v>
       </c>
     </row>
     <row r="17">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4058</v>
+        <v>6161</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00121933767767919</v>
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.004926750036931917</v>
+        <v>0.007478567839989169</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -7257,19 +7257,19 @@
         <v>17876</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10567</v>
+        <v>9907</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29684</v>
+        <v>27810</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02320970953885179</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01372064918116005</v>
+        <v>0.01286271270989922</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03854139995963046</v>
+        <v>0.03610826129149889</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -7278,19 +7278,19 @@
         <v>18880</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11350</v>
+        <v>11669</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29714</v>
+        <v>30781</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01184491076582519</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007120515543070169</v>
+        <v>0.007321035818505042</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01864177065166811</v>
+        <v>0.01931161511672401</v>
       </c>
     </row>
     <row r="19">
@@ -7307,19 +7307,19 @@
         <v>11448</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5526</v>
+        <v>5609</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21362</v>
+        <v>20324</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01389732007108839</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006707744003546696</v>
+        <v>0.006809086154274923</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02593253228029012</v>
+        <v>0.0246724542596041</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -7328,19 +7328,19 @@
         <v>19642</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12070</v>
+        <v>11903</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30875</v>
+        <v>30083</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02550310511218993</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01567158265424181</v>
+        <v>0.01545521479116671</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0400882145012661</v>
+        <v>0.03905923813335804</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -7349,19 +7349,19 @@
         <v>31090</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21120</v>
+        <v>20991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44984</v>
+        <v>45199</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0195051432574381</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01325024064390723</v>
+        <v>0.01316899442099611</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02822185929270886</v>
+        <v>0.02835683321895787</v>
       </c>
     </row>
     <row r="20">
@@ -7378,19 +7378,19 @@
         <v>53354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39799</v>
+        <v>39677</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71203</v>
+        <v>70451</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06476873537666769</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04831376051263946</v>
+        <v>0.04816629554211244</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08643676989370376</v>
+        <v>0.08552374146363316</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -7399,19 +7399,19 @@
         <v>68108</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53762</v>
+        <v>53729</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87156</v>
+        <v>86744</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08843151147245229</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06980507297486245</v>
+        <v>0.06976126292955737</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1131640866510068</v>
+        <v>0.1126279253854074</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -7420,19 +7420,19 @@
         <v>121462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100313</v>
+        <v>99473</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>145436</v>
+        <v>144133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0762024009127259</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06293422541988676</v>
+        <v>0.06240714494995454</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09124308359402196</v>
+        <v>0.09042573778530863</v>
       </c>
     </row>
     <row r="21">
@@ -7449,19 +7449,19 @@
         <v>96371</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>80529</v>
+        <v>78851</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>115842</v>
+        <v>115387</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1169892612938124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09775822258137597</v>
+        <v>0.09572156257263051</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1406259368590261</v>
+        <v>0.1400740474200065</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>94</v>
@@ -7470,19 +7470,19 @@
         <v>101730</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>82975</v>
+        <v>83196</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>121497</v>
+        <v>122328</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1320859297774552</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1077350877855227</v>
+        <v>0.1080213302561695</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1577522715459034</v>
+        <v>0.1588309006805942</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>190</v>
@@ -7491,19 +7491,19 @@
         <v>198101</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>174250</v>
+        <v>171903</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>226186</v>
+        <v>226335</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1242838516433138</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1093208024417219</v>
+        <v>0.1078479964112869</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1419041209214647</v>
+        <v>0.1419974850967863</v>
       </c>
     </row>
     <row r="22">
@@ -7520,19 +7520,19 @@
         <v>302222</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>275920</v>
+        <v>273013</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>330459</v>
+        <v>329935</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3668818957391283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3349524318849486</v>
+        <v>0.3314229742350311</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4011602183982192</v>
+        <v>0.4005240675856755</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>254</v>
@@ -7541,19 +7541,19 @@
         <v>273863</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>246086</v>
+        <v>246754</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>301733</v>
+        <v>300483</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3555834767670562</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3195179852853519</v>
+        <v>0.3203862674167483</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3917709495813059</v>
+        <v>0.3901473600365522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>544</v>
@@ -7562,19 +7562,19 @@
         <v>576085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>537244</v>
+        <v>539588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>616510</v>
+        <v>615462</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3614225893969641</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3370549623971102</v>
+        <v>0.3385254106447856</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3867843891479964</v>
+        <v>0.3861268161339579</v>
       </c>
     </row>
     <row r="23">
@@ -7591,19 +7591,19 @@
         <v>359359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>331343</v>
+        <v>332696</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>387752</v>
+        <v>389638</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4362434498416241</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4022323702307473</v>
+        <v>0.4038759208203979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4707107238246992</v>
+        <v>0.4730001431902528</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>283</v>
@@ -7612,19 +7612,19 @@
         <v>288960</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>261434</v>
+        <v>261635</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>316418</v>
+        <v>315862</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3751862673319946</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3394459546278338</v>
+        <v>0.3397070230380672</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4108369760211874</v>
+        <v>0.4101159341868722</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>624</v>
@@ -7633,19 +7633,19 @@
         <v>648320</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>609571</v>
+        <v>609078</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>687260</v>
+        <v>689090</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4067411040237329</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3824309124057701</v>
+        <v>0.3821218912108683</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4311712544673758</v>
+        <v>0.4323194986462876</v>
       </c>
     </row>
     <row r="24">
@@ -7737,19 +7737,19 @@
         <v>4734</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1839</v>
+        <v>1812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10457</v>
+        <v>10130</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00934312626316689</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003628896971950315</v>
+        <v>0.003576306680915288</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02063787851698285</v>
+        <v>0.01999277622581138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7758,19 +7758,19 @@
         <v>6322</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2140</v>
+        <v>2373</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13289</v>
+        <v>12941</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01291011143252599</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004370292380249698</v>
+        <v>0.004844863006621175</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02713730260015074</v>
+        <v>0.02642550155620545</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -7779,19 +7779,19 @@
         <v>11056</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6051</v>
+        <v>6319</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18924</v>
+        <v>19887</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01109618388733802</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006072628624655842</v>
+        <v>0.006342025699232863</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01899228776019759</v>
+        <v>0.0199591533247581</v>
       </c>
     </row>
     <row r="26">
@@ -7808,19 +7808,19 @@
         <v>5132</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12812</v>
+        <v>12546</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01012877766475632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002642762971547294</v>
+        <v>0.002630653529475605</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0252859304511829</v>
+        <v>0.02475987776065917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -7829,19 +7829,19 @@
         <v>13954</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7799</v>
+        <v>7208</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24637</v>
+        <v>23347</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02849585697293352</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01592572904457091</v>
+        <v>0.01471962761447712</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05031141089238116</v>
+        <v>0.04767577810475813</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -7850,19 +7850,19 @@
         <v>19087</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10887</v>
+        <v>11330</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30944</v>
+        <v>32004</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01915560196768469</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01092594138844364</v>
+        <v>0.0113711329663792</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03105549709602298</v>
+        <v>0.03212006957269584</v>
       </c>
     </row>
     <row r="27">
@@ -7879,19 +7879,19 @@
         <v>28231</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>18466</v>
+        <v>18309</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>41281</v>
+        <v>41114</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05571585696952599</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03644424434577118</v>
+        <v>0.03613421601677178</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08147100574927146</v>
+        <v>0.08114127000381291</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>65</v>
@@ -7900,19 +7900,19 @@
         <v>71441</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>56330</v>
+        <v>57644</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>89646</v>
+        <v>89998</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1458885717037433</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1150310637518596</v>
+        <v>0.1177133183545639</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1830642967719421</v>
+        <v>0.1837826403294757</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>90</v>
@@ -7921,19 +7921,19 @@
         <v>99673</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>79879</v>
+        <v>81340</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>119338</v>
+        <v>123772</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1000328242546551</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08016806306644435</v>
+        <v>0.08163430152477201</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1197695308855196</v>
+        <v>0.1242198583555451</v>
       </c>
     </row>
     <row r="28">
@@ -7950,19 +7950,19 @@
         <v>45974</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34423</v>
+        <v>33271</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>59789</v>
+        <v>60681</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09073190204833524</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0679361147393971</v>
+        <v>0.06566114726182551</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1179964550851244</v>
+        <v>0.1197574149317472</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>47</v>
@@ -7971,19 +7971,19 @@
         <v>51854</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39441</v>
+        <v>39491</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>68070</v>
+        <v>67239</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1058892374925692</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08054231028726105</v>
+        <v>0.0806431809271769</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1390040198012107</v>
+        <v>0.1373063724492964</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>90</v>
@@ -7992,19 +7992,19 @@
         <v>97828</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>79865</v>
+        <v>79590</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>117766</v>
+        <v>118224</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09818124125245867</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08015330965997694</v>
+        <v>0.07987783989946769</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1181918551412539</v>
+        <v>0.118651513564988</v>
       </c>
     </row>
     <row r="29">
@@ -8021,19 +8021,19 @@
         <v>169355</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>147253</v>
+        <v>149053</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>192097</v>
+        <v>190623</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3342311310244461</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2906113913114092</v>
+        <v>0.2941634403239254</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.379112154759698</v>
+        <v>0.3762046674199533</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>134</v>
@@ -8042,19 +8042,19 @@
         <v>142522</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>122925</v>
+        <v>122488</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>165449</v>
+        <v>163308</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2910403530272959</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2510214355012398</v>
+        <v>0.2501289097805299</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3378592361447963</v>
+        <v>0.333487884202295</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>291</v>
@@ -8063,19 +8063,19 @@
         <v>311877</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>283146</v>
+        <v>284120</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>340773</v>
+        <v>344035</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3130042632168092</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2841696893963045</v>
+        <v>0.2851473967114005</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3420049506713293</v>
+        <v>0.3452786436305363</v>
       </c>
     </row>
     <row r="30">
@@ -8092,19 +8092,19 @@
         <v>253274</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>230495</v>
+        <v>231731</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>276525</v>
+        <v>275768</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4998492060297695</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4548931002069719</v>
+        <v>0.4573327009383805</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5457366493737099</v>
+        <v>0.5442430398680524</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>191</v>
@@ -8113,19 +8113,19 @@
         <v>203605</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>181561</v>
+        <v>181768</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>227038</v>
+        <v>226063</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4157758693709321</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3707610060108643</v>
+        <v>0.3711831052286795</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4636276744234157</v>
+        <v>0.4616375284373255</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>428</v>
@@ -8134,19 +8134,19 @@
         <v>456878</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>426601</v>
+        <v>424174</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>493753</v>
+        <v>486767</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4585298854210543</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4281435322546271</v>
+        <v>0.4257070284395093</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4955377417878161</v>
+        <v>0.4885262556975704</v>
       </c>
     </row>
     <row r="31">
@@ -8238,19 +8238,19 @@
         <v>39185</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28777</v>
+        <v>27822</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54501</v>
+        <v>52986</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01164457005105228</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008551643365827475</v>
+        <v>0.008267801200471271</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01619584835293923</v>
+        <v>0.01574568425433979</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>71</v>
@@ -8259,19 +8259,19 @@
         <v>76517</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>60739</v>
+        <v>60843</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>95836</v>
+        <v>98613</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02173369185430046</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01725204653902162</v>
+        <v>0.01728172187479274</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02722083402506905</v>
+        <v>0.0280098052036599</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>108</v>
@@ -8280,19 +8280,19 @@
         <v>115703</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>96605</v>
+        <v>95970</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>140214</v>
+        <v>141504</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01680309856193633</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01402962719856907</v>
+        <v>0.01393743399697946</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0203628310962119</v>
+        <v>0.02055014399743623</v>
       </c>
     </row>
     <row r="33">
@@ -8309,19 +8309,19 @@
         <v>58877</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>44833</v>
+        <v>45031</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>76864</v>
+        <v>75252</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01749640731705291</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01332276183807884</v>
+        <v>0.01338164635343067</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02284152280415331</v>
+        <v>0.02236232129306528</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>104</v>
@@ -8330,19 +8330,19 @@
         <v>115633</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>91882</v>
+        <v>93332</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>137287</v>
+        <v>138776</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03284397971699359</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0260978080009454</v>
+        <v>0.02650977957491666</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03899438545060655</v>
+        <v>0.03941731961741627</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>160</v>
@@ -8351,19 +8351,19 @@
         <v>174510</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>148598</v>
+        <v>148089</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>201178</v>
+        <v>202728</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02534356104776337</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02158037100762777</v>
+        <v>0.02150651682967457</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02921636583744707</v>
+        <v>0.02944157867834399</v>
       </c>
     </row>
     <row r="34">
@@ -8380,19 +8380,19 @@
         <v>332369</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>297102</v>
+        <v>299435</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>363109</v>
+        <v>372659</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09876921120366373</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08828898488671308</v>
+        <v>0.08898226771995167</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1079038861021356</v>
+        <v>0.1107418629338594</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>438</v>
@@ -8401,19 +8401,19 @@
         <v>469792</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>429681</v>
+        <v>430979</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>512751</v>
+        <v>511202</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1334381499053083</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1220448970304617</v>
+        <v>0.1224135801615075</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1456399739669479</v>
+        <v>0.1451998435297752</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>757</v>
@@ -8422,19 +8422,19 @@
         <v>802162</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>749548</v>
+        <v>751409</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>854566</v>
+        <v>854483</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1164953039421762</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1088544188626295</v>
+        <v>0.1091246796873762</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1241058322296285</v>
+        <v>0.1240937850832607</v>
       </c>
     </row>
     <row r="35">
@@ -8451,19 +8451,19 @@
         <v>527444</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>483478</v>
+        <v>481578</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>568712</v>
+        <v>569701</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1567388723156966</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1436736257844637</v>
+        <v>0.1431089542833885</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1690024029949969</v>
+        <v>0.1692963905251142</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>598</v>
@@ -8472,19 +8472,19 @@
         <v>636792</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>593609</v>
+        <v>589962</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>680845</v>
+        <v>682041</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.180872074475128</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1686066155437186</v>
+        <v>0.1675707537534677</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1933847152026622</v>
+        <v>0.1937245034495128</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1118</v>
@@ -8493,19 +8493,19 @@
         <v>1164236</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1099947</v>
+        <v>1097852</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1227231</v>
+        <v>1222569</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1690780841743814</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1597416088577528</v>
+        <v>0.1594373321742623</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1782267435567236</v>
+        <v>0.1775495787652349</v>
       </c>
     </row>
     <row r="36">
@@ -8522,19 +8522,19 @@
         <v>1105946</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1048449</v>
+        <v>1050595</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1162777</v>
+        <v>1161244</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3286505359649491</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3115644398211935</v>
+        <v>0.3122022069981276</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.345538950711692</v>
+        <v>0.3450835391378178</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1016</v>
@@ -8543,19 +8543,19 @@
         <v>1079597</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1023611</v>
+        <v>1025696</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1134108</v>
+        <v>1135255</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3066447922376095</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2907427770911512</v>
+        <v>0.2913349101739604</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3221279836047631</v>
+        <v>0.3224536998762612</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2071</v>
@@ -8564,19 +8564,19 @@
         <v>2185542</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2106415</v>
+        <v>2108477</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2270185</v>
+        <v>2264683</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3173990852802976</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3059076248821307</v>
+        <v>0.3062070860006252</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3296914558218978</v>
+        <v>0.3288923543539188</v>
       </c>
     </row>
     <row r="37">
@@ -8593,19 +8593,19 @@
         <v>1301290</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1241899</v>
+        <v>1245581</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1363561</v>
+        <v>1363286</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3867004031475855</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3690514574620093</v>
+        <v>0.3701455620008667</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.40520530268076</v>
+        <v>0.4051237646628409</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1089</v>
@@ -8614,19 +8614,19 @@
         <v>1142344</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1084655</v>
+        <v>1085085</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1201705</v>
+        <v>1197357</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3244673118106601</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3080814373068769</v>
+        <v>0.3082035197143423</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3413279679080023</v>
+        <v>0.3400928688487853</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2305</v>
@@ -8635,19 +8635,19 @@
         <v>2443634</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2364235</v>
+        <v>2360374</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2528138</v>
+        <v>2528354</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3548808669934452</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3433500070170144</v>
+        <v>0.3427893287014547</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3671531167243933</v>
+        <v>0.3671844330589192</v>
       </c>
     </row>
     <row r="38">
@@ -8979,19 +8979,19 @@
         <v>16158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9399</v>
+        <v>9544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24843</v>
+        <v>26067</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03239685919875281</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01884541270888828</v>
+        <v>0.01913690034665304</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04981158856179634</v>
+        <v>0.05226582966774217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -9000,19 +9000,19 @@
         <v>26095</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17997</v>
+        <v>18314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40506</v>
+        <v>39506</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04188566219576026</v>
+        <v>0.04188566219576025</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02888750509025679</v>
+        <v>0.02939525977979197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0650159222560333</v>
+        <v>0.06341196364495869</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -9021,19 +9021,19 @@
         <v>42253</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31205</v>
+        <v>30269</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58419</v>
+        <v>57693</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03766686552544968</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.027818337961295</v>
+        <v>0.026983974912051</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0520786120523978</v>
+        <v>0.05143129056975955</v>
       </c>
     </row>
     <row r="5">
@@ -9050,19 +9050,19 @@
         <v>25551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16929</v>
+        <v>16538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37209</v>
+        <v>36999</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05123188101106327</v>
+        <v>0.05123188101106326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03394441313982222</v>
+        <v>0.03315909309290364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07460568286065758</v>
+        <v>0.07418410128477726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -9071,19 +9071,19 @@
         <v>56373</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44349</v>
+        <v>45044</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72718</v>
+        <v>70929</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09048458888535542</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07118522031344339</v>
+        <v>0.07230039850739071</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1167195934468118</v>
+        <v>0.1138488429415103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -9092,19 +9092,19 @@
         <v>81924</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66885</v>
+        <v>66605</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98626</v>
+        <v>99384</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07303252529704363</v>
+        <v>0.07303252529704361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05962513248418724</v>
+        <v>0.05937591080535984</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08792164340051317</v>
+        <v>0.0885976383345721</v>
       </c>
     </row>
     <row r="6">
@@ -9121,19 +9121,19 @@
         <v>65841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50450</v>
+        <v>51965</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80717</v>
+        <v>84761</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1320154292859899</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1011555158082231</v>
+        <v>0.1041920663171275</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1618412731830463</v>
+        <v>0.169950421429296</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>175</v>
@@ -9142,19 +9142,19 @@
         <v>116123</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>99182</v>
+        <v>100162</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>133897</v>
+        <v>132536</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.186389456668781</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1591968452098567</v>
+        <v>0.1607704048931284</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2149184922868445</v>
+        <v>0.2127345440929252</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>243</v>
@@ -9163,19 +9163,19 @@
         <v>181964</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>159848</v>
+        <v>160948</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>205689</v>
+        <v>205827</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1622143351338265</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1424983396027644</v>
+        <v>0.1434794758766474</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1833640248692003</v>
+        <v>0.1834871266823316</v>
       </c>
     </row>
     <row r="7">
@@ -9192,19 +9192,19 @@
         <v>68013</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53413</v>
+        <v>54185</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83799</v>
+        <v>85225</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.136369623016717</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1070960627454472</v>
+        <v>0.1086433084609599</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1680222985930608</v>
+        <v>0.1708813156271078</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>148</v>
@@ -9213,19 +9213,19 @@
         <v>93555</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79013</v>
+        <v>79174</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109773</v>
+        <v>109425</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1501654993833676</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1268241990614226</v>
+        <v>0.1270828339029384</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1761976027031849</v>
+        <v>0.1756382770229709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -9234,19 +9234,19 @@
         <v>161568</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141541</v>
+        <v>140003</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182554</v>
+        <v>184817</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1440317439141058</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1261787567720526</v>
+        <v>0.1248071749846265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1627398818023015</v>
+        <v>0.1647575583931035</v>
       </c>
     </row>
     <row r="8">
@@ -9263,19 +9263,19 @@
         <v>127453</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>108166</v>
+        <v>106489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>150490</v>
+        <v>150165</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2555512699316604</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.216878457962486</v>
+        <v>0.2135156838620023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3017405022644805</v>
+        <v>0.3010887137692875</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>219</v>
@@ -9284,19 +9284,19 @@
         <v>170263</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>149081</v>
+        <v>148915</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>191567</v>
+        <v>190989</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2732898352060625</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2392914530685935</v>
+        <v>0.2390242049148677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3074855265477643</v>
+        <v>0.3065568607194842</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>334</v>
@@ -9305,19 +9305,19 @@
         <v>297716</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>265771</v>
+        <v>265997</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>326670</v>
+        <v>326919</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2654031291442615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2369251060936428</v>
+        <v>0.2371262717384938</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2912140459323953</v>
+        <v>0.2914366627292984</v>
       </c>
     </row>
     <row r="9">
@@ -9334,19 +9334,19 @@
         <v>195723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>172677</v>
+        <v>171615</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>222268</v>
+        <v>222534</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3924349375558165</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3462263673828869</v>
+        <v>0.3440975230617883</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4456608437379317</v>
+        <v>0.4461925522415198</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>202</v>
@@ -9355,19 +9355,19 @@
         <v>160603</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>141759</v>
+        <v>140964</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>182201</v>
+        <v>183345</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2577849576606732</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2275380972376295</v>
+        <v>0.2262626315910879</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.292452077534508</v>
+        <v>0.2942880952326932</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>359</v>
@@ -9376,19 +9376,19 @@
         <v>356326</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>324081</v>
+        <v>322541</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>391182</v>
+        <v>390588</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3176514009853129</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2889062611890691</v>
+        <v>0.2875338646319667</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3487246415357327</v>
+        <v>0.3481952578984439</v>
       </c>
     </row>
     <row r="10">
@@ -9480,19 +9480,19 @@
         <v>5880</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2632</v>
+        <v>2784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13596</v>
+        <v>12758</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006123926737606556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00274106662131276</v>
+        <v>0.00290002532030257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01416018898314314</v>
+        <v>0.01328765932072976</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -9501,19 +9501,19 @@
         <v>15932</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10626</v>
+        <v>10699</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22794</v>
+        <v>22744</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01427772398983022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009522794105588529</v>
+        <v>0.009588460826043468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02042738213008671</v>
+        <v>0.0203828273172547</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -9522,19 +9522,19 @@
         <v>21812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15628</v>
+        <v>15756</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30945</v>
+        <v>30350</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01050661963500149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007527999549997515</v>
+        <v>0.007589696036783345</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01490613102190244</v>
+        <v>0.01461963908504558</v>
       </c>
     </row>
     <row r="12">
@@ -9551,19 +9551,19 @@
         <v>18452</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11448</v>
+        <v>10406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30176</v>
+        <v>29064</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01921762687871953</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01192374471666104</v>
+        <v>0.01083766642794415</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0314292904446274</v>
+        <v>0.03027091287488369</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -9572,19 +9572,19 @@
         <v>45579</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36040</v>
+        <v>35799</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>58149</v>
+        <v>57827</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04084652217647994</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03229809018679303</v>
+        <v>0.03208189872164494</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05211161325620244</v>
+        <v>0.05182305284072752</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -9593,19 +9593,19 @@
         <v>64030</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51629</v>
+        <v>50786</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>79971</v>
+        <v>79882</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03084322938853688</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02486943468638231</v>
+        <v>0.02446369070705334</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03852171686655893</v>
+        <v>0.03847894202447159</v>
       </c>
     </row>
     <row r="13">
@@ -9622,19 +9622,19 @@
         <v>83502</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67671</v>
+        <v>68235</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102375</v>
+        <v>104978</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08696885909197459</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07048079626945558</v>
+        <v>0.07106752207158128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1066258078825518</v>
+        <v>0.1093362660000689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>200</v>
@@ -9643,19 +9643,19 @@
         <v>125672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109594</v>
+        <v>107853</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>145201</v>
+        <v>143440</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1126246026415669</v>
+        <v>0.1126246026415668</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09821622352600191</v>
+        <v>0.09665516074902736</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1301258044305272</v>
+        <v>0.1285482205858179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>295</v>
@@ -9664,19 +9664,19 @@
         <v>209174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>184799</v>
+        <v>185250</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>233726</v>
+        <v>235113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1007589058093515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08901742251960289</v>
+        <v>0.08923456344044904</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1125856630885041</v>
+        <v>0.1132535416655619</v>
       </c>
     </row>
     <row r="14">
@@ -9693,19 +9693,19 @@
         <v>116542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97490</v>
+        <v>98549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138237</v>
+        <v>139773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1213810196545105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1015380335237323</v>
+        <v>0.1026406674717789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1439765900602094</v>
+        <v>0.1455760511718255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>285</v>
@@ -9714,19 +9714,19 @@
         <v>180144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>158258</v>
+        <v>161716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200080</v>
+        <v>203004</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1614408048796982</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1418270444751495</v>
+        <v>0.1449266822930583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1793071608458291</v>
+        <v>0.1819280460594429</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>417</v>
@@ -9735,19 +9735,19 @@
         <v>296686</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>267631</v>
+        <v>267294</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>324688</v>
+        <v>326398</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1429132862471973</v>
+        <v>0.1429132862471972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1289176761563362</v>
+        <v>0.1287549627550094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.156401974813685</v>
+        <v>0.1572255827000255</v>
       </c>
     </row>
     <row r="15">
@@ -9764,19 +9764,19 @@
         <v>301993</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>272678</v>
+        <v>273805</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>336554</v>
+        <v>334068</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3145310245474598</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2839990964275023</v>
+        <v>0.285172815769386</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3505271031410154</v>
+        <v>0.3479378874085109</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>545</v>
@@ -9785,19 +9785,19 @@
         <v>356479</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>332849</v>
+        <v>331363</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>385027</v>
+        <v>384495</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3194687226851796</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.298292252162443</v>
+        <v>0.2969608025080994</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3450533542443708</v>
+        <v>0.3445762533149367</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>849</v>
@@ -9806,19 +9806,19 @@
         <v>658472</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>619569</v>
+        <v>618221</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>698776</v>
+        <v>696004</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3171850535707794</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2984457918244856</v>
+        <v>0.2977965441815915</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3365995489115828</v>
+        <v>0.3352642126583268</v>
       </c>
     </row>
     <row r="16">
@@ -9835,19 +9835,19 @@
         <v>433768</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>397400</v>
+        <v>397481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>468557</v>
+        <v>468700</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4517775430897291</v>
+        <v>0.4517775430897292</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4138997312473663</v>
+        <v>0.4139835819803795</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4880101142527261</v>
+        <v>0.4881599575652352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>474</v>
@@ -9856,19 +9856,19 @@
         <v>392044</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>361012</v>
+        <v>362871</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>419576</v>
+        <v>420014</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3513416236272452</v>
+        <v>0.3513416236272451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3235309705370314</v>
+        <v>0.3251973390057783</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3760146340461169</v>
+        <v>0.3764073975338985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>826</v>
@@ -9877,19 +9877,19 @@
         <v>825813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>777420</v>
+        <v>781591</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>871017</v>
+        <v>873087</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3977929053491336</v>
+        <v>0.3977929053491335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3744824667726112</v>
+        <v>0.3764916056910899</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.419568048746716</v>
+        <v>0.4205647902002067</v>
       </c>
     </row>
     <row r="17">
@@ -9981,19 +9981,19 @@
         <v>4382</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1481</v>
+        <v>1405</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11237</v>
+        <v>11145</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004191068633890168</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001416491802967546</v>
+        <v>0.001343637359525533</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01074649797216125</v>
+        <v>0.01065909586974736</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -10002,19 +10002,19 @@
         <v>11226</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6575</v>
+        <v>6970</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17718</v>
+        <v>17824</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01071521080223825</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006275789632640065</v>
+        <v>0.006652906982511225</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01691227419032004</v>
+        <v>0.01701305251459999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -10023,19 +10023,19 @@
         <v>15608</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10092</v>
+        <v>10024</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24511</v>
+        <v>23952</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.007456302345535657</v>
+        <v>0.007456302345535658</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004821071346066054</v>
+        <v>0.004788830043888929</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01170933070817574</v>
+        <v>0.01144237819001361</v>
       </c>
     </row>
     <row r="19">
@@ -10052,19 +10052,19 @@
         <v>30693</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20926</v>
+        <v>19848</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47052</v>
+        <v>45728</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02935417189954265</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02001347461771481</v>
+        <v>0.01898195937757538</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04499942213371297</v>
+        <v>0.04373289287097594</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -10073,19 +10073,19 @@
         <v>41300</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31356</v>
+        <v>31563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53083</v>
+        <v>55410</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03942191694963518</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02992977763319263</v>
+        <v>0.03012719159510064</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05066868159515102</v>
+        <v>0.05288999285868295</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -10094,19 +10094,19 @@
         <v>71993</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58022</v>
+        <v>56812</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91547</v>
+        <v>91324</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03439292484047339</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02771854716489406</v>
+        <v>0.02714040898501989</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0437341241482414</v>
+        <v>0.04362769023396509</v>
       </c>
     </row>
     <row r="20">
@@ -10123,19 +10123,19 @@
         <v>63168</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49088</v>
+        <v>49614</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79132</v>
+        <v>78980</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06041292396571277</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04694694830083891</v>
+        <v>0.04744975782707312</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07568021721072693</v>
+        <v>0.07553502326525363</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -10144,19 +10144,19 @@
         <v>121797</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104551</v>
+        <v>106252</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>140079</v>
+        <v>141355</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1162579643708267</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0997962824710273</v>
+        <v>0.1014202269222493</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1337086306412457</v>
+        <v>0.1349265063718372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>268</v>
@@ -10165,19 +10165,19 @@
         <v>184965</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>160913</v>
+        <v>161482</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>209051</v>
+        <v>208917</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08836251547578758</v>
+        <v>0.08836251547578759</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07687204324552162</v>
+        <v>0.07714397169457415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09986899651790823</v>
+        <v>0.09980487033441475</v>
       </c>
     </row>
     <row r="21">
@@ -10194,19 +10194,19 @@
         <v>143812</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>123414</v>
+        <v>122381</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>169614</v>
+        <v>168309</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1375389077361993</v>
+        <v>0.1375389077361992</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1180304305677597</v>
+        <v>0.1170427649793377</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.162214642603631</v>
+        <v>0.1609667975604976</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>234</v>
@@ -10215,19 +10215,19 @@
         <v>145619</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>128376</v>
+        <v>127952</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>165641</v>
+        <v>168061</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1389973028976701</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1225378638388157</v>
+        <v>0.1221335690330012</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1581081944842641</v>
+        <v>0.1604181490441765</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>390</v>
@@ -10236,19 +10236,19 @@
         <v>289432</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>260333</v>
+        <v>261162</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>322159</v>
+        <v>320653</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1382688122850667</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1243675839278295</v>
+        <v>0.1247635200692321</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1539032600411196</v>
+        <v>0.1531838317942611</v>
       </c>
     </row>
     <row r="22">
@@ -10265,19 +10265,19 @@
         <v>364295</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>331526</v>
+        <v>330864</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>400126</v>
+        <v>396604</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3484038633112356</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3170642792734478</v>
+        <v>0.3164311384807085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3826719243663517</v>
+        <v>0.3793028930470711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>526</v>
@@ -10286,19 +10286,19 @@
         <v>343847</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>318816</v>
+        <v>316646</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>370119</v>
+        <v>371397</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.328210310146421</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3043172892980189</v>
+        <v>0.3022461814011931</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3532876143598176</v>
+        <v>0.3545079283349725</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>896</v>
@@ -10307,19 +10307,19 @@
         <v>708142</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>666660</v>
+        <v>665624</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>755790</v>
+        <v>749712</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3382972977505477</v>
+        <v>0.3382972977505478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3184800412347573</v>
+        <v>0.3179852926963627</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3610597548004185</v>
+        <v>0.3581561851981649</v>
       </c>
     </row>
     <row r="23">
@@ -10336,19 +10336,19 @@
         <v>439261</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>403662</v>
+        <v>404873</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>474495</v>
+        <v>471976</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4200990644534195</v>
+        <v>0.4200990644534194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3860536412477998</v>
+        <v>0.387211913661238</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.453796092860665</v>
+        <v>0.4513869373617049</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>487</v>
@@ -10357,19 +10357,19 @@
         <v>383853</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>357727</v>
+        <v>355861</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>411107</v>
+        <v>413851</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3663972948332088</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3414589610306919</v>
+        <v>0.3396782166407428</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3924120371328838</v>
+        <v>0.3950312985777183</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>880</v>
@@ -10378,19 +10378,19 @@
         <v>823114</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>777642</v>
+        <v>777903</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>870063</v>
+        <v>865735</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3932221473025888</v>
+        <v>0.3932221473025889</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3714991073121693</v>
+        <v>0.3716237540082687</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4156511211637507</v>
+        <v>0.4135831698947792</v>
       </c>
     </row>
     <row r="24">
@@ -10482,19 +10482,19 @@
         <v>6653</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2558</v>
+        <v>2691</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13092</v>
+        <v>13124</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.00681671532856061</v>
+        <v>0.006816715328560612</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00262140927411707</v>
+        <v>0.002757712572381194</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01341507701890176</v>
+        <v>0.0134481863396482</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -10503,19 +10503,19 @@
         <v>21440</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14323</v>
+        <v>14688</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30680</v>
+        <v>31475</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02360787716435714</v>
+        <v>0.02360787716435713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01577126527697595</v>
+        <v>0.01617316500598907</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03378206326015366</v>
+        <v>0.03465686413171173</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -10524,19 +10524,19 @@
         <v>28093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19695</v>
+        <v>19973</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38527</v>
+        <v>38885</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01491038975992541</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01045297622175655</v>
+        <v>0.01060058177918588</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02044840683307538</v>
+        <v>0.02063856584032429</v>
       </c>
     </row>
     <row r="26">
@@ -10553,19 +10553,19 @@
         <v>36468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24948</v>
+        <v>25572</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55334</v>
+        <v>53352</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03736755999902154</v>
+        <v>0.03736755999902153</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02556300020645882</v>
+        <v>0.02620234550227217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0566987314634748</v>
+        <v>0.05466786982347831</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -10574,19 +10574,19 @@
         <v>41485</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32365</v>
+        <v>32061</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55937</v>
+        <v>54781</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04567941548894924</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03563706005550516</v>
+        <v>0.03530218997930876</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06159214030453582</v>
+        <v>0.06031931354013981</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>95</v>
@@ -10595,19 +10595,19 @@
         <v>77953</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62493</v>
+        <v>62760</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>99205</v>
+        <v>97376</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04137403989087804</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03316857749703046</v>
+        <v>0.03331011161377573</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05265349170199145</v>
+        <v>0.05168274859198025</v>
       </c>
     </row>
     <row r="27">
@@ -10624,19 +10624,19 @@
         <v>143608</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>121961</v>
+        <v>122634</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>165842</v>
+        <v>171858</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1471495895910721</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1249686936782479</v>
+        <v>0.1256583544769016</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1699324139019932</v>
+        <v>0.1760969987989832</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>296</v>
@@ -10645,19 +10645,19 @@
         <v>176383</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>156397</v>
+        <v>157420</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>198375</v>
+        <v>198710</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1942164620696711</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1722096095079327</v>
+        <v>0.1733361854138788</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2184324552458105</v>
+        <v>0.2188011895654265</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>462</v>
@@ -10666,19 +10666,19 @@
         <v>319990</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>291078</v>
+        <v>291308</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>351878</v>
+        <v>351584</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1698367595480802</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1544911431420203</v>
+        <v>0.1546134086112983</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1867610895311672</v>
+        <v>0.1866051345395285</v>
       </c>
     </row>
     <row r="28">
@@ -10695,19 +10695,19 @@
         <v>120341</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>100668</v>
+        <v>100862</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>143336</v>
+        <v>146107</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1233095548055799</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1031510097452281</v>
+        <v>0.1033499480108873</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1468710355554647</v>
+        <v>0.1497110894260946</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>160</v>
@@ -10716,19 +10716,19 @@
         <v>102225</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>87278</v>
+        <v>87322</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>120687</v>
+        <v>120623</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1125602964964111</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09610269305639045</v>
+        <v>0.09615137127987117</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1328898101208257</v>
+        <v>0.1328187288688325</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>285</v>
@@ -10737,19 +10737,19 @@
         <v>222566</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>198107</v>
+        <v>194323</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>253578</v>
+        <v>250358</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1181281982095413</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1051466040313951</v>
+        <v>0.1031380058330681</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1345882224983909</v>
+        <v>0.132878686728588</v>
       </c>
     </row>
     <row r="29">
@@ -10766,19 +10766,19 @@
         <v>289667</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>258591</v>
+        <v>256033</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>326032</v>
+        <v>322961</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2968118716845595</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2649688917060854</v>
+        <v>0.2623481504778193</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3340732675521884</v>
+        <v>0.3309262784233002</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>352</v>
@@ -10787,19 +10787,19 @@
         <v>247803</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>225833</v>
+        <v>222035</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>275325</v>
+        <v>271084</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2728578576102199</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.248666040194679</v>
+        <v>0.2444845904137553</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3031630914643038</v>
+        <v>0.2984931167396302</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>620</v>
@@ -10808,19 +10808,19 @@
         <v>537471</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>498090</v>
+        <v>500898</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>579120</v>
+        <v>579958</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.285265559812994</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2643638764755656</v>
+        <v>0.2658545148029572</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3073711457801939</v>
+        <v>0.3078161207173076</v>
       </c>
     </row>
     <row r="30">
@@ -10837,19 +10837,19 @@
         <v>379192</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>346673</v>
+        <v>342905</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>415950</v>
+        <v>416029</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3885447085912064</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3552237420917219</v>
+        <v>0.3513626755542018</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4262096791604153</v>
+        <v>0.4262901996579246</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>418</v>
@@ -10858,19 +10858,19 @@
         <v>318841</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>293641</v>
+        <v>291696</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>346795</v>
+        <v>346748</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3510780911703915</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.323330197632529</v>
+        <v>0.3211885147749053</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3818582924862739</v>
+        <v>0.3818067100982065</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>768</v>
@@ -10879,19 +10879,19 @@
         <v>698033</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>651870</v>
+        <v>653211</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>735648</v>
+        <v>743437</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.370485052778581</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3459837823468961</v>
+        <v>0.3466954287337334</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3904494476391908</v>
+        <v>0.3945836639717547</v>
       </c>
     </row>
     <row r="31">
@@ -10983,19 +10983,19 @@
         <v>33072</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23223</v>
+        <v>22827</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46011</v>
+        <v>46271</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009502383046212247</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006672575450764543</v>
+        <v>0.006558744877749015</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01322005793254969</v>
+        <v>0.01329464258773283</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>110</v>
@@ -11004,19 +11004,19 @@
         <v>74693</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>60520</v>
+        <v>61090</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>92794</v>
+        <v>92475</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02021633339359338</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01638028319796846</v>
+        <v>0.01653447853367576</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02511552290234145</v>
+        <v>0.02502926480584031</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>147</v>
@@ -11025,19 +11025,19 @@
         <v>107765</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>90298</v>
+        <v>91893</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>129273</v>
+        <v>128371</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01501932740524447</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01258496179344188</v>
+        <v>0.01280727356730894</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01801691137845888</v>
+        <v>0.01789124211215177</v>
       </c>
     </row>
     <row r="33">
@@ -11054,19 +11054,19 @@
         <v>111164</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>89661</v>
+        <v>90335</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>136831</v>
+        <v>133711</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03193986880898933</v>
+        <v>0.03193986880898934</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02576163901785796</v>
+        <v>0.02595530377438644</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03931441406805672</v>
+        <v>0.03841812516473673</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>280</v>
@@ -11075,19 +11075,19 @@
         <v>184737</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>161565</v>
+        <v>161969</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>209456</v>
+        <v>209326</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0500006972831285</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04372902051414568</v>
+        <v>0.04383833136649003</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05669127249995639</v>
+        <v>0.05665612144588032</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>384</v>
@@ -11096,19 +11096,19 @@
         <v>295901</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>264007</v>
+        <v>264564</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>332338</v>
+        <v>330884</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04123994791512466</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03679493432883763</v>
+        <v>0.03687248480063601</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04631822270399625</v>
+        <v>0.04611557929364467</v>
       </c>
     </row>
     <row r="34">
@@ -11125,19 +11125,19 @@
         <v>356119</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>322787</v>
+        <v>321861</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>402292</v>
+        <v>392469</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1023208735924642</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0927438132219932</v>
+        <v>0.09247765760451425</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1155872544727229</v>
+        <v>0.1127650728376763</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>863</v>
@@ -11146,19 +11146,19 @@
         <v>539974</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>506323</v>
+        <v>503489</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>578736</v>
+        <v>575154</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1461492000651159</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1370411103815046</v>
+        <v>0.1362742140293</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1566402950445643</v>
+        <v>0.1556708757081547</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1268</v>
@@ -11167,19 +11167,19 @@
         <v>896094</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>846012</v>
+        <v>842043</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>948230</v>
+        <v>946632</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1248894342688932</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1179095479630794</v>
+        <v>0.1173563051088335</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1321557804925193</v>
+        <v>0.1319329420719392</v>
       </c>
     </row>
     <row r="35">
@@ -11196,19 +11196,19 @@
         <v>448709</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>408687</v>
+        <v>407154</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>491990</v>
+        <v>490376</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.128923909288216</v>
+        <v>0.1289239092882161</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1174247773859101</v>
+        <v>0.116984302626263</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1413593910228761</v>
+        <v>0.1408957843181929</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>827</v>
@@ -11217,19 +11217,19 @@
         <v>521542</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>483066</v>
+        <v>487077</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>554749</v>
+        <v>564439</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1411604187573341</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1307465378494265</v>
+        <v>0.1318321561513489</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1501482017964055</v>
+        <v>0.1527706764118029</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1312</v>
@@ -11238,19 +11238,19 @@
         <v>970251</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>918473</v>
+        <v>919209</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1023236</v>
+        <v>1026848</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1352248664236387</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1280084814292012</v>
+        <v>0.1281110719683696</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1426094431683012</v>
+        <v>0.1431127811392423</v>
       </c>
     </row>
     <row r="36">
@@ -11267,19 +11267,19 @@
         <v>1083409</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1020246</v>
+        <v>1023783</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1144085</v>
+        <v>1144591</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.311287071446745</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.293139048452758</v>
+        <v>0.2941551880116679</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.32872061677273</v>
+        <v>0.328865998639808</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1642</v>
@@ -11288,19 +11288,19 @@
         <v>1118392</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1070522</v>
+        <v>1069534</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1165191</v>
+        <v>1173693</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3027033088518049</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2897468883964988</v>
+        <v>0.2894796543451741</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3153700964550519</v>
+        <v>0.317671195252457</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2699</v>
@@ -11309,19 +11309,19 @@
         <v>2201800</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2120414</v>
+        <v>2126168</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2281251</v>
+        <v>2287553</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3068670266367555</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2955241356856691</v>
+        <v>0.2963261008248445</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3179401931781906</v>
+        <v>0.3188184002975292</v>
       </c>
     </row>
     <row r="37">
@@ -11338,19 +11338,19 @@
         <v>1447944</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1380999</v>
+        <v>1374249</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1514197</v>
+        <v>1509098</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4160258938173732</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3967912929233985</v>
+        <v>0.3948518062469323</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4350619816665041</v>
+        <v>0.4335968949359368</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1581</v>
@@ -11359,19 +11359,19 @@
         <v>1255341</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1204697</v>
+        <v>1205462</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1313875</v>
+        <v>1303337</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3397700416490231</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.326062702101393</v>
+        <v>0.3262696961798408</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3556127723036231</v>
+        <v>0.3527604665204847</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2833</v>
@@ -11380,19 +11380,19 @@
         <v>2703285</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2621932</v>
+        <v>2611674</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2782478</v>
+        <v>2784415</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3767593973503433</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3654211096684367</v>
+        <v>0.3639915050472491</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.387796630076368</v>
+        <v>0.3880665884963844</v>
       </c>
     </row>
     <row r="38">
